--- a/data_files/level_4.xlsx
+++ b/data_files/level_4.xlsx
@@ -606,26 +606,94 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n \t\t \n \t\t Шаг 1\n \nНеобходимо удостовериться, что ваша **персональная страница** появилась на сайте.\xa0Персональная страница [появляется на портале автоматически](https://portal.hse.ru/personalpages) после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n \t\t \n \t\t Шаг 2\n \nСледует авторизоваться в **[Едином личном кабинете (ЕЛК)](https://lk.hse.ru/)** . Для этого необходимо в качестве логина\xa0ввести адре **с корпоративной почты сотрудника** , в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на [digital@hse.ru](mailto:digital@hse.ru)\n\n\n\n\n\n\n \t\t \n \t\t Шаг 3\n \nВ\xa0ЕЛК нужно перейти в раздел **[«Корпоративный портал»](https://lk.hse.ru/service/ELK_PORT_AllUsers) ** и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0[portal@hse.ru](mailto:portal@hse.ru).\n **В письме укажите** :\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго **с корпоративной почты сотрудника** @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -639,12 +707,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)Учёные звания:[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)Члены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\nНаграды:[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)Награжденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\nФункционал:[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)Ответственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\nНаучные интересы[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[web-технологии](https://www.hse.ru/org/persons/?intst=101501478)\n[[качество и контент сайта](https://www.hse.ru/org/persons/?intst=73930565)](https://www.hse.ru/org/persons/?intst=73930565)\n[[[мониторинг качества образования](https://www.hse.ru/org/persons/?intst=62772450)](https://www.hse.ru/org/persons/?intst=62772450)](https://www.hse.ru/org/persons/?intst=62772450)\n[[мониторинг качества приема в вузы](https://www.hse.ru/org/persons/?intst=147595884)](https://www.hse.ru/org/persons/?intst=147595884)\n[рейтинги высших учебных заведений](https://www.hse.ru/org/persons/?intst=119211648)\n[юзабилити](https://www.hse.ru/org/persons/?intst=28056109)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\nОтдел развития и поддержки англоязычной версии портала[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t](//www.hse.ru/org/persons/8278043)\nГлавный редактор[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t](//www.hse.ru/org/persons/539947575)\nРедактор[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t](//www.hse.ru/org/persons/91277348)\nРедактор[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t](//www.hse.ru/org/persons/61709763)\nРедактор[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)\nОтдел развития и поддержки русскоязычной версии портала[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/1239514)](//www.hse.ru/org/persons/61709763)](//www.hse.ru/org/persons/91277348)](//www.hse.ru/org/persons/539947575)](//www.hse.ru/org/persons/8278043)](//www.hse.ru/org/persons/32878646)](//www.hse.ru/staff/abolina)[[[[[[[[[[[[[[\n\n](//www.hse.ru/staff/maxshu)](//www.hse.ru/org/persons/73946)](//www.hse.ru/org/persons/51742)](//www.hse.ru/org/persons/307136760)](//www.hse.ru/org/persons/110300938)](//www.hse.ru/org/persons/130650603)](//www.hse.ru/org/persons/580927523)](//www.hse.ru/org/persons/</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -682,47 +762,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес [portalnews@hse.ru](mailto:portalnews@hse.ru). Подробнее об анонсировании мероприятий можно прочитать [здесь](http://portal.hse.ru/events).\n']]</t>
+          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя [страница](http://www.hse.ru/org/persons/). Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0[написать заявку](http://portal.hse.ru/help)\xa0на адрес\xa0[portal@hse.ru](mailto:portal@hse.ru). Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на [этой странице](http://portal.hse.ru/personalpages). Если вопросы все-таки остались, обратитесь к ответственному от\xa0[своего подразделения](https://handbook.hse.ru/responsibilities/managers). Английская версия личной страницы активируется [английской редакцией портала](http://portal.hse.ru/persons/). Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы [«Абитуриент-Студент-Выпускник-Аспирант»](http://it.hse.ru/asav) (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес [portal@hse.ru](mailto:portal@hse.ru).\n\n']]</t>
+          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать [здесь](http://portal.hse.ru/im).'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет [инструкция](http://portal.hse.ru/progs).'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0[portal@hse.ru](mailto:portal@hse.ru).\n\n']]</t>
+          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[['[Англоязычный сайт](http://www.hse.ru/en/)\xa0Высшей школы экономики занял в 2015 году первое место в\xa0[рейтинге](http://www.hse.ru/news/life/167976763.html)\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес [portal@hse.ru](mailto:portal@hse.ru) или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала ([Мария Бесова](http://www.hse.ru/staff/besova)).\nПри создании текстов необходимо руководствоваться [Глоссарием терминов ВШЭ](http://www.hse.ru/org/hse/thesaurus) и\xa0 [Стилистическим справочником](http://www.hse.ru/org/hse/thesaurus).\n\n\n']]</t>
+          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает [Аналитический центр](http://strategy.hse.ru/direct2).'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «[Антиплагиат](http://www.hse.ru/org/hse/antiplagiat_info/)».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес [antiplagiat@hse.ru](mailto:antiplagiat@hse.ru).\n\n']]</t>
+          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0[[Управление академического развития](http://academics.hse.ru/)](http://academics.hse.ru/));\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает [[Управление академического развития](http://academics.hse.ru/)](http://academics.hse.ru/)).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0[portal@hse.ru](mailto:portal@hse.ru)\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[['Разработкой портала занимается [Управление разработки информационных систем портала](https://underground.hse.ru/).\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно [Дирекции информационных технологий](http://it.hse.ru/)\xa0и\xa0[Дирекции по порталу и мобильным приложениям](https://www.hse.ru/web/).\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу [Дмитрию Коптюбенко](http://www.hse.ru/org/persons/564063).']]</t>
+          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -745,29 +825,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Как опубликовать анонс на портале](https://portal.hse.ru/events)[Как создать подписку на анонсы ](https://portal.hse.ru/events#subscribe)[Как сделать сайт мероприятия](https://portal.hse.ru/events#site)** ']]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей [ленте](http://www.hse.ru/news/announcements/) анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к [редакторам](https://handbook.hse.ru/responsibilities/fresponsible) своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на [portalnews@hse.ru](mailto:portalnews@hse.ru). Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со [стандартом](http://www.hse.ru/docs/164385300.html), заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', '[Инструкция по размещению анонсов](http://portal.hse.ru/instann)']]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу [Подписка на анонсы мероприятий Высшей школы экономики](https://www.hse.ru/news/announcements/?mode=expand&amp;subscribe=1) → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0[portal@hse.ru](mailto:portal@hse.ru) заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: [стандартный сайт мероприятия](https://portal.hse.ru/instev) или [лендинг](https://portal.hse.ru/landing); желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -794,34 +858,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим [https://www.hse.ru/adm/](https://www.hse.ru/adm/)\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
+          <t>[['Сотрудники НИУ ВШЭ (за\xa0исключением сотрудников категории административно-хозяйственного персонала, не\xa0занимающих руководящие должности) обязаны иметь заполненную в\xa0соответствии со\xa0Стандартом персональную страницу.'], ['Персональная страница появляется автоматически после внесения приказа о\xa0трудоустройстве сотрудника в\xa0базу Управления персонала (ЗиК, ИС-ПРО) и\xa0показывается в\xa0общем списке преподавателей и\xa0сотрудников, а\xa0также в\xa0списках сотрудников на\xa0страницах подразделений.'], ['Автоматически появляются только страницы штатных сотрудников и\xa0преподавателей, имеющих договор ГПХ ППС (такие сотрудники показываются на\xa0портале с\xa0должностью «Приглашенный преподаватель»).'], ['Если необходимо, чтобы персональная страница появилась у сотрудника, работающего по обычному договору ГПХ, то при оформлении договора в СЭД\xa0необходимо поставить соответствующую галочку. Для уже оформленных договоров галочку нужно поставить в кадровой системе ЗиК.\xa0'], ['Посмотреть, где находится галочка в интерфейсе СЭД'], [''], ['Сотрудники несут ответственность за\xa0актуальность информации, размещенной на\xa0их\xa0персональных страницах.']]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» ([создание ](https://portal.hse.ru/pages)и [редактирование ](https://portal.hse.ru/format)статических страниц сайта), «Опросы» ([создание ](https://portal.hse.ru/pages)формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание [формы регистрации](https://portal.hse.ru/poll).'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу ([создание и редактирование](https://portal.hse.ru/pages/) статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо **под** каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться **под** предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+          <t>[['На\xa0странице должны быть сведения, определенные Стандартом. Также сотрудник может разместить там любую информацию, не\xa0нарушающую законов\xa0РФ и\xa0не\xa0противоречащую декларации ценностей университета.'], ['Информацию на\xa0персональную страницу сотрудник вносит самостоятельно (за\xa0исключением сведений, которые отображаются на\xa0странице из\xa0баз данных университета). При возникновении вопросов сотрудник обращается к\xa0ответственному за\xa0персональные страницы или к\xa0руководителю подразделения (в\xa0случае отсутствия ответственного в\xa0подразделении).'], ['\n\xa0\n\nДоступ\xa0к редактированию персональной страницы осуществляется по логину и паролю от ЕЛК (при наличии доступа к корпоративной почты).\nКонсультации по\xa0вопросам наполнения персональных страниц осуществляют ответственные от\xa0подразделений.\n\n']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же [инструментария](https://portal.hse.ru/format/).']]</t>
+          <t>[['Часть информации попадает на\xa0персональные страницы из\xa0баз данных университета, поэтому важно, чтобы подразделения, отвечающие за\xa0внесение информации в\xa0базы, вовремя получали необходимые данные. Сведения, поступающие из\xa0баз данных университета, сотрудник не\xa0может исправить самостоятельно.'], ['Пример: Если сотрудник не\xa0предоставил в\xa0Управление персонала сведения о\xa0награде или ученой степени, то\xa0эти сведения не\xa0появятся на\xa0его персональной странице. '], ['Сведения, поступающие из\xa0систем ЗиК (Москва), ИС-ПРО (кампусы), АСАВ, РУЗ, LMS, базы данных портала могут изменить только сотрудники подразделений, отвечающие за\xa0информацию из\xa0этих систем:'], ['\n\n\nФамилия Имя Отчество (ЗиК\xa0/ ИС-ПРО)\nПол (ЗиК\xa0/ ИС-ПРО)\nПодразделение (ЗиК\xa0/ ИС-ПРО)\nДолжность / Возложение обязанностей (ЗиК\xa0/ ИС-ПРО)\nНачало работы в\xa0НИУ ВШЭ (ЗиК\xa0/ ИС-ПРО)\nНаучно-педагогический стаж (ЗиК\xa0/ ИС-ПРО)\nОбразование (ЗиК\xa0/ ИС-ПРО)\nУченая степень (ЗиК\xa0/ ИС-ПРО)\n\n\n\n\nУченое звание (ЗиК\xa0/ ИС-ПРО)\nДостижения и\xa0поощрения (ЗиК\xa0/ ИС-ПРО)\nАкадемические надбавки (база данных портала)\nУчебные курсы (АСАВ)\nРуководство аспирантами (АСАВ)\nРуководство ВКР (LMS)\nРасписание (РУЗ)\n\n\n\n\nУчастие в\xa0административном кадровом резерве (база данных портала)\nУчастие в\xa0академическом кадровом резерве (база данных портала)\nПатенты и\xa0свидетельства о\xa0правах интеллектуальной собственности (база данных портала)\nПубликации издательского дома ВШЭ (база данных портала)\n\n\n'], ['Сведения может править только Управление персонала. Изменения будут видны на\xa0портале в\xa0течение суток после их\xa0внесения в\xa0ИС-ПРО', '**Сведения из\xa0ИС-ПРО:**\n\nФамилия Имя ОтчествоПол Подразделение и\xa0должность Начало работы в\xa0НИУ ВШЭ Научно-педагогический стаж\nОбразование Ученая степень Ученое званиеДостижения и\xa0поощрения*\n\n', '**Сотрудники, отвечающие за\xa0внесения правок в\xa0Москве:**\n\n\nЩегольская Татьяна\xa0(+\xa0Наталья Малыхина) (штатные сотрудники с\xa0российским гражданством).\xa0Запросить консультацию\n\nЯлугина Анастасия\xa0(+\xa0Наталия Нижаловская) (сотрудники, работающие\xa0по\xa0договорам ГПХ ППС)\xa0Запросить консультацию\nСтарокадомская Вероника\xa0(сотрудники с\xa0иностранным гражданством)\xa0Запросить консультацию\nНаталья Малыхина\xa0(информация о\xa0наградах вне зависимости от\xa0гражданства)\xa0Запросить консультацию\n\nВ кампусах правки вносят кадровые службы кампусов.\n', '**Что сотрудник может дополнить самостоятельно:**\n\nОбразование: можно уточнить\xa01) уровень образования (например, указать BSc или\xa0BA для бакалавриата, полученного зарубежом), 2) факультет, 3) специальность на\xa0английском языке (по\xa0умолчанию перевода специальности на\xa0английский язык нет).\nУченая степень: можно уточнить тему диссертации и\xa0место защиты.\n\n'], ['Изменения будут видны на\xa0портале после синхронизации баз данных. Синхронизация происходит приблизительно раз в\xa0месяц либо по\xa0запросу от\xa0подразделения, отвечающего за\xa0информацию.', '**Учебные курсы**\nСведения формируются на\xa0основе информации из\xa0Рабочих учебных планов и\xa0модуля нагрузки преподавателей. Правки вносят ответственные от\xa0подразделений.Курирует систему заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна\nСинхронизация с\xa0порталом:\n\nучебных курсов\xa0— по\xa0запросу, приблизительно раз месяц\nпрограммы дисциплин\xa0— каждый час\nнагрузка преподавателей\xa0— ежедневно\n\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nответственный за\xa0планирование нагрузки преподавателей\nответственный за\xa0прикрепление программы дисциплин в\xa0АСАВ\n\n', '**Научное руководство аспирантами**\nСведения может править Управление аспирантуры и\xa0докторантуры\nСинхронизация с\xa0порталом\xa0— по\xa0запросу или раз в\xa0два месяца.\n'], ['Сведения вносят сотрудники учебных офисов, курирует РУЗ заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна', 'К\xa0кому обращаться для внесения правок:', '\nответственный от\xa0подразделения\nсотрудники учебных офисов\n'], ['Сведения вносят сотрудники учебных офисов, курирует LMS заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна)', '**ВКР (выпускная квалификационная работа)**\nСинхронизация\xa0— ежедневно.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nсотрудники учебных офисов\n\n'], ['Изменения видны сразу после внесения.', '**Участие в\xa0административном кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0руководителя программы Юлии Гринкевич.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Юлия Гринкевич\n\n', '**Участие в\xa0академическом кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Управления академического развития\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Управление академического развития\n\n', '**Патенты и\xa0свидетельства о\xa0правах интеллектуальной собственности**\nСведения вносит Дирекция по\xa0правовым вопросам\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nДирекция по\xa0правовым вопросам\n\n', '**Академические надбавки**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Научного фонда (Ольга Чурикова)\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nначальник управления академических исследований Ольга Чурикова\n\n', '**Публикации**\nАвтоматически на\xa0портале появляются только публикации Издательского дома ВШЭ. Остальные публикации вносит представитель подразделения либо сотрудник самостоятельно. Вносить изменения в\xa0публикацию могут: авторы публикации, сотрудник, создавший публикацию, Управление развития и\xa0поддержки портала по\xa0заявке на\xa0адрес publications@hse.ru. Подробнее см. Справочник по\xa0публикациям.\n']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[['Если Вы решили [создать ](http://portal.hse.ru/pages/)отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать [создать ](http://portal.hse.ru/pages/)составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0[https://portal.hse.ru/sostav](https://portal.hse.ru/sostav).'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку **«Сохранить»** внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
+          <t>[['Доступ к\xa0редактированию страниц'], ['Как это работает'], ['Добавление новых вкладок'], ['Работа с\xa0вкладками'], ['Форматирование'], ['Научные интересы'], ['Фотография'], ['Scopus, SPIN РИНЦ, ORCID...'], ['Английская версия персональной страницы'], ['Персональные страницы может редактировать:', '\nСам сотрудник.\nПредставитель персоны (директора, декана, проректора).\nОтветственный за\xa0персональные страницы (редактирование только персональных страниц сотрудников определенного подразделения).\n', 'Для получения прав редактирования необходимо отправить запрос с\xa0вашей корпоративной почты на\xa0адрес portal@hse.ru. Обязательно укажите, какие права необходимо предоставить:', '\nпредставитель персоны (указываете, чью страницу будете редактировать);\nответственный за\xa0персональные страницы (указываете подразделение, страницы сотрудников которого будете редактировать).\n'], ['Непосредственно в\xa0личном кабинете есть инструкция по\xa0редактированию страниц: большая синяя кнопка «Как это работает» (в\xa0английской версии\xa0— How it\xa0works).', ''], ['Если вы\xa0собираетесь добавить информацию, которая не\xa0подходит для предложенных вкладок, вы\xa0можете создать собственную вкладку. Для этого нажмите «Добавить вкладку», введите заголовок и\xa0нажмите «ОК».', '', 'После этого в\xa0созданной вкладке можно добавить необходимую информацию. Нажимаете «Добавить текст» и\xa0заполняете необходимые поля.'], ['Те\xa0разделы, рядом с\xa0которыми стоит «замок», формируются автоматически из\xa0различных баз Вышки. Вы\xa0не\xa0можете вносить в\xa0них изменения, удалять их\xa0или перемещать. Разделы, не\xa0отмеченные этим символом, можно легко перетаскивать мышкой, меняя их\xa0порядок. Добавить новый раздел можно, нажав на\xa0«Добавить текст». Созданный раздел также можно перетащить в\xa0любую вкладку.', 'Если вы\xa0удалили раздел, который по\xa0умолчанию предусмотрен в\xa0одной из\xa0вкладок, и\xa0информация, представленная в\xa0нем, формируется автоматически, то\xa0вы\xa0легко можете восстановить раздел, нажав символ «+» внизу вкладки. При этом будет показан список разделов, подлежащих восстановлению.', '', 'Если вы\xa0удалили раздел, который вы\xa0создали вручную, восстановить его автоматически будет невозможно. Вам придётся заново вносить всю информацию.', 'Помните! Все изменения сохраняются только после того, как вы\xa0нажали кнопку «Сохранить». Если вы\xa0случайно что-то удалили, добавили что-то не\xa0то, просто закройте страницу без сохранения изменений.', '', '\xa0'], ['Чтобы текст во\xa0всех вкладках был одинаковым, необходимо добавлять информацию по\xa0одному из\xa0следующих алгоритмов:', '1) заполнять все вкладки и\xa0поля непосредственно в\xa0личном кабинете, не\xa0копируя информацию из\xa0текстовых редакторов, браузера и\xa0т.п.;', '2) весь текст, который вы\xa0собираетесь добавить в\xa0текстовое поле, необходимо добавить сначала в\xa0блокнот, скопировать из\xa0блокнота и\xa0вставить непосредственно в\xa0текстовое поле личного кабинета;', '3) при вставке текста использовать кнопку «Вставка из\xa0Word». В\xa0случае, если текст всё равно выглядит не\xa0так, как текст на\xa0автоматических вкладках, использовать кнопку «Убрать форматирование»;', '4) при вставке текста использовать кнопку «Вставить только текст» (в\xa0этом случае всё форматирование пропадёт);', '5) после вставки текста в\xa0текстовое поле выделить весь текст и\xa0нажать кнопку «Убрать форматирование».', '', '\xa0'], ['При добавлении интересов нажимаем «Добавить рус.», после этого пишем ключевое слово и\xa0нажимаем «Найти». Отобразится список с\xa0упоминанием искомого слова. Выбираем нужное слово или словосочетание и\xa0нажимаем кнопку «Выбрать».', '\xa0'], ['Фотография загружается из\xa0базы службы безопасности. Система такова: раз в\xa0неделю Дирекция по\xa0безопасности присылает фото в\xa0Управление персонала, которое заносит их\xa0в\xa0ИС-ПРО. Однако сотрудник может залить и\xa0отредактировать фото самостоятельно в\xa0SmartPoint (ЕЛК)'], ['Инструкции:', '\nSPIN РИНЦ\nORCID\nResearcherID\nGoogle Scholar\n', 'По\xa0всем вопросам, связанным с\xa0данной базой, необходимо обращаться к\xa0ответственному от\xa0подразделения.'], ['Для активации английской версии необходимо в\xa0личном кабинете:', '\nЗаполнить поле ФИО на\xa0английском\nЗаполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В\xa0частности, необходимо заполнить поля Специальность в\xa0разделах Образование и\xa0Ученая степень\nСохранить все изменения\nВыбрать пункт «Статус английской версии» (британский флажок)\n', 'Подробнее см.: Работа с\xa0английскими версиями персональных страниц']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,124 +903,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания [простой статической страницы](https://portal.hse.ru/pages/).\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком". После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку **Tx ** для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на [простой статической странице.](https://portal.hse.ru/format) ']]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею. При загрузке изображений обязательно помните, что сначала их необходимо\xa0[оптимизировать](https://portal.hse.ru/photo) ']]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/ **embed** /pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c **embed** и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок. ']]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor). ']]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL Пример: Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL Пример: Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL. Пример: Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото. Пример: Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL Пример: ']]</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком". Пример: ']]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример: Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример: Плашки можно поставить в **колонки** . Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример: ']]</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку". Пример: ']]</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет " **Набор с выпадайками** ". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока. Пример: Если вам нужно просто сделать выпадающий список, то вы выбираете виджет " **Набор с выпадайками** 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести. Пример: ']]</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ". Пример: ']]</t>
-        </is>
-      </c>
+          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -972,74 +952,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью [этого инструмента](https://testmysite.withgoogle.com/intl/ru-ru).']]</t>
+          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
+          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом [Photoshop Express](https://www.adobe.com/ru/photoshop/online/photo-editing.html)\xa0или [Pixlr](https://pixlr.com/ru/x/). Самая широкая картинка\xa0на портале ** не\xa0превышает1600 пикселей по ширине** . Ориентируйтесь на эту ширину как на максимальную. **Оптимизируйте** изображение с помощью **сервиса [Tinypng](https://tinypng.com/)** . Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом [Google PageSpeed Insights](https://developers.google.com/speed/pagespeed/insights/). Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов [Google PageSpeed Insights](https://developers.google.com/speed/pagespeed/insights/). Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
+          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1057,17 +1001,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Оформление](#remember)[Вставка текста](#input)[Списки](#list)[Заголовки](#headrs)[Якорь](#anchor)[Вставка картинки/фото](#img)[Загрузка файлов](#file)[Вставка таблицы](https://portal.hse.ru/tables)** ']]</t>
+          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая **страница сайта должна иметь правильную структуру** , которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). **Не надо создавать пустые страницы** (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. **Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.** \xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы **не было** наследуемых из Word **двойных пробелов** .\xa0 **Не надо использовать дополнительное форматирование ** текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления **можно воспользоваться виджетами** , которые есть в функционале [составной страницы](https://portal.hse.ru/sostav). Если что-то не получается или не знаете, как оформить, пишите на [portal@hse.ru](Не надо использовать) ', '[\xa0](/data/2015/04/07/1096378292/editor.png)'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш __Shift+Enter__ .\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', ' маркированный список маркированный список нумерованный список нумерованный список '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией **«Фотоальбом»** (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть **внятное название без сокращений, многоточий** и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1094,32 +1050,64 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Копирование таблицы из Word и Excel](#copy)[Создание таблицы в визуальном редакторе](#create)[Специальные шаблоны для создания таблицы](#special)** ']]</t>
+          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
+          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
+          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], ['[ ](/data/2015/04/07/1096379397/templates_button.png)'], [''], [' **Строка данных** включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], [' **Блок данных** представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], [' **Воздушная таблица** отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], ['[ ](/data/2015/04/07/1096381961/air.png)']]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1139,79 +1127,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[['При заполнении поля **«Заголовок»** не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно [очистите форматирование](https://portal.hse.ru/format#input). Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[[' **Техническое имя страницы** \xa0(поле «Путь») указывается **только латинскими строчными буквами** . Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае **нельзя** \xa0 **делать пробелы** между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти [здесь](https://portal.hse.ru/format).']]</t>
-        </is>
-      </c>
+          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1228,25 +1172,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Создание формы](https://portal.hse.ru/poll/#create)[Уведомления на свою почту](https://portal.hse.ru/poll/#email)[Ответное письмо пользователю](https://portal.hse.ru/poll/#letter)[Ссылка на форму/клонирование/выгрузка результатов](https://portal.hse.ru/poll/#link)[CRM-система](https://www.hse.ru/web/crm/)** ']]</t>
+          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в __ **Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.** __ ', '', 'Нажимаем на +, чтобы **создать форму.** ', '', 'Далее нужно указать:', ' **название ** (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы) **;время проведения ** (тот период времени, в течение которого можно ответить на вопросы) **;статус** (меняете на «активно» после того, как форма будет готова) **;язык** (если форма на английском **язык** е, необходимо выставить **язык** \xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность **закрыть регистрацию после определенного количества заявок. ** В ином случае вы оставляете это поле незаполненным.', 'Галочка « **пройти можно только раз»** \xa0нужна только в том случае, если вы создаете опрос.', 'Галочка « **автоматически нумеровать вопросы»** стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку « **Добавить блок вопросов** ».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', ' ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0 **«Добавить вопрос»** .\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0 **«Добавить ответ»** и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать **«выпадающим списком»** , тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать **свой вариант ответа** , в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание __даты, номер телефона, e-mail, страны проживания или загрузка файла__ , то надо выбрать строку\xa0 **«Специальный вопрос» ** в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо **сохранить форму** , нажав на кнопку «Создать».', '']]</t>
+          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Чтобы открыть ** __«Дополнительные параметры»__ ** , необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме ** пояснительный текст** (будет отображаться сразу после заголовка); Добавить сообщение на странице **после отправки** формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице ** по завершении регистрации** (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить **текст согласия ** на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе __ **«Дополнительные\xa0параметры»** __ вы также сможете:', ' Поставить **ссылку перехода после сохранения** (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); **Изменить схему показа вопросов** (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); **Привязать форму** к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать **корпоративный e-mail сотрудника ВШЭ** , на который будут приходить **уведомления о новых ответах** \xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 **Связать с формой на другом языке ** (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на **почту пользователя** \xa0приходило ответное\xa0 **письмо** , надо поставить галочку напротив «Направить ответное **письмо** пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы **ответное письмо** пользователю было **персонализировано** , то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
+          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Необходимо зайти\xa0в ** __Редактору\xa0– Данные\xa0–\xa0__ __Опросы и регистрационные формы__ \xa0** и там вы сможете:', '', '1. **Редактировать ** форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. **Клонировать ** форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти **ссылку на форму\xa0** (нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. **Выгрузить ответы ** на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1273,31 +1221,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Создание анонса](https://portal.hse.ru/instann#create)[Составной редактор](https://portal.hse.ru/instann#sostav)[Анонс в английской версии](https://portal.hse.ru/instann#english)[Копирование на другой сайт](https://portal.hse.ru/instann#import)[Подписка\xa0на анонсы подразделения](https://portal.hse.ru/instann#subscribe)** ']]</t>
+          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0[стандартом](http://www.hse.ru/docs/164385300.html), заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в [Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию](https://www.hse.ru/docs/238305307.html).\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о [Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию](https://legal.hse.ru/rndip/children_protection).\xa0']]</t>
+          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите **выстроить** их в блоке «Мероприятия» **в календарном порядке** , то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле **«Дата показа анонса на главной странице с»** была **одинаковой** . Далее вы **регулируете** положение анонсов в блоке на главной **временем показа** . Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о **форматировании** текста и использовании основных\xa0 **инструментов редактирования** страницы\xa0можно прочитать [здесь](http://portal.hse.ru/format/).', 'Расставите в тексте **ссылки** на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по [составной странице](https://portal.hse.ru/sostav/#widget).'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать **еще раз сохранить** , уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – __«Ссылкой на оригинальный анонс»__ \xa0и __«Полным клонированием»__ . В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам **необходимо убрать анонс** , размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на [главную страницу портала](https://www.hse.ru/), там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0[portal@hse.ru](mailto:portal@hse.ru).']]</t>
+          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу [Подписка на анонсы мероприятий Высшей школы экономики](https://www.hse.ru/news/announcements/?mode=expand&amp;subscribe=1) → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1322,19 +1278,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Шапка](#header)[Меню](#menu)[Основная колонка](#main)[Виджеты](#widgets)** ']]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом [https://tinypng.com/](https://tinypng.com/). Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать [требования к\xa0картинке](https://portal.hse.ru/header-banner).', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком». После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0 **Tx ** для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу [«Типограф»](https://www.artlebedev.ru/typograf/). \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею. При загрузке изображений обязательно помните, что сначала их\xa0необходимо [оптимизировать](https://portal.hse.ru/photo) \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/ **embed** /pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0 **embed** и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок. \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor). \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию. Пример: \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. [инструкцию](https://portal.hse.ru/nov). При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок». Пример: \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. [инструкцию](https://portal.hse.ru/instann). При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок». Пример: \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку. Пример: \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL Пример: Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL Пример: Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL. Пример: Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото. Пример: Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL Пример: \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна. Пример: \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке. Пример: \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком». Пример: \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком». Пример: \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку. Пример: \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример: Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример: Плашки можно поставить в\xa0 **колонки** . Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример: \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку». Пример: \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля. Пример: \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока. Пример: Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Пример: \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести. Пример: \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной. Пример: Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ». Пример: \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию. Пример: \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать [здесь](https://portal.hse.ru/slider_banners). \n']]</t>
-        </is>
-      </c>
+          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1363,36 +1315,124 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Создание новости](#publ)[Предосмотр новости](#preview)[Составной редактор](#sostav)[Иллюстрация новости](#foto)[Копирование на другой сайт](#import)** ']]</t>
+          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], [' **Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! ([Инструкция по размещению английских новостей в новостной ленте](https://www.hse.ru/data/2015/12/14/1134511751/%D0%A0%D0%B0%D0%B7%D0%BC%D0%B5%D1%89%D0%B5%D0%BD%D0%B8%D0%B5%20%D0%B0%D0%BD%D0%B3%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D1%85%20%D0%BD%D0%BE%D0%B2%D0%BE%D1%81%D1%82%D0%B5%D0%B9%20%D0%B2%20%D0%BD%D0%BE%D0%B2%D0%BE%D1%81%D1%82%D0%BD%D0%BE%D0%B9%20%D0%BB%D0%B5%D0%BD%D1%82%D0%B5.docx))** '], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0[главную страницу портала](https://www.hse.ru/), там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0[portal@hse.ru](mailto:portal@hse.ru).'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', ' **Заголовок:\xa0** кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в [главной ленте портала](https://www.hse.ru/news/). В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', ' **Аннотация** : (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', ' **Текст** : (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0[чистить формат](http://portal.hse.ru/format/).', 'Обязательно выбираете\xa0 **рубрикуи ключевые слова.** ', 'Если имеющиеся __рубрики__ не соответствуют тематике вашего сайта, напишите на\xa0[portal@hse.ru]("mailto:portal@hse.ru), пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать __тип материала/статус новости/сферу деятельности__ (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', ' __Ключевые слова __ выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по [составной странице.](https://portal.hse.ru/sostav/#widget)'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! **Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).** ', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией __«Фотоальбом»__ . Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом [составного редактора](#sostav).', 'Обратите ваше внимание, что все **фото** , размещаемые на портале, **необходимо [оптимизировать](https://portal.hse.ru/photo)** .'], ['Чтобы воспользоваться этой функцией, необходимо [залогиниться на портале](https://www.hse.ru/user/). После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – __«Ссылкой на оригинальную новость»__ \xa0и __«Полным клонированием»__ . В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо **убрать новость** , **размещенную «Ссылкой на оригинальную новость»** , Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1400,35 +1440,79 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[[''], [' **Заголовок.** Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], [' **Анонс.** Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['Существует два варианта оформления баннера:\xa0 **заливка цветом** \xa0и **фоновая картинка** .', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете « **Свой баннер** »', '', ' **Фон сплешки.** Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0[фотостиль Вышки](https://www.hse.ru/info/brandbook/#photo). Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0[оптимизировать](https://tinypng.com/). Подробно о том, почему важно [оптимизировать](https://tinypng.com/) фото, можно прочитать [здесь](https://portal.hse.ru/photo).\xa0 На\xa0[этой странице](https://portal.hse.ru/tools) вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', ' **Стили CSS.** В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', ' **.vp** .splash.pseudo { background-position: 50% 25%; }', ' **CSS класс.** Чтобы стили работали, скопируйте значение первого класса из\xa0 **Стилей CSS** , но\xa0без точки (в\xa0примере это\xa0vp).', ' **Темный текст.** Устанавливаете, если фон сплешки светлый.']]</t>
+          <t>[['Создайте страницу, кликнув по иконке ']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1445,66 +1529,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти [плейлист](https://www.youtube.com/playlist?list=PL-U1Z5tJ1i-ZHlZ8kh9jGkC3bn8WRK83Z) с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться [фотографиями](https://yadi.sk/d/2KnL5MuhutN8XA) университета. На странице [love.hse](https://love.hse.ru/) размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес [dkoptubenko@hse.ru](mailto:dkoptubenko@hse.ru).']]</t>
+          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[['\n[Colordot](https://color.hailpixel.com)\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\n[Pixlr](https://pixlr.com/) —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\n[TinyPNG](https://tinypng.com/)\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[['\n[Unsplash](https://unsplash.com/)\xa0—\xa0изумительной красоты фотографии, в основном, видовые\n[Gratisography](http://www.gratisography.com/)\xa0—\xa0бесплатные жанровые фотографии\n[StockSnap.io](https://stocksnap.io/)\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\n[Picjumbo](https://picjumbo.com/)\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\n[Picography](http://picography.co/)\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\n[Library of Congress](https://www.loc.gov/photos/)\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\n[Morguefile](https://morguefile.com/)\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\n[Textures](http://www.textures.com/)\xa0—\xa0подборка паттернов и фоновых изображений\n[L+T](https://lostandtaken.com/)\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStock[Textures](http://www.textures.com/)\xa0—\xa0более 800 паттернов\n[TextureZoom](http://www.texturezoom.com/)\xa0—\xa0тематические текстуры\n']]</t>
+          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[['\n[draw.io](https://www.draw.io/)\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\n[easelly](https://www.easel.ly/)\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\n[MyBalsamiq](https://www.mybalsamiq.com/)\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[['\n[StoryMap](https://storymap.knightlab.com/)\xa0— с\xa0его помощью можно создавать интерактивные карты.\n[Juxtapose](https://juxtapose.knightlab.com/)\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\n[Timeline JS](https://timeline.knightlab.com/)\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa0[20-летию нижегородского кампуса](https://nnov.hse.ru/20)\n[Soundcite](https://soundcite.knightlab.com/)\xa0— инструмент для создания аудиопрезентаций\n[Prezi](https://prezi.com/)\xa0— мощная альтернатива Powerpoint для создания презентаций\n[Fliphtml5](http://fliphtml5.com/)\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\n[Формулы](https://www.codecogs.com/latex/eqneditor.php?lang=ru-ru)\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[['\n[Google Формы](https://docs.google.com/forms)\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть [штатный инструмент](https://portal.hse.ru/poll)\n']]</t>
+          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[['\n[ВКонтакте pages.clearCache](https://vk.com/dev/pages.clearCache)\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\n[vk.com/cc](https://vk.com/cc)\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\n[SMMPlanner](https://smmplanner.com/)\xa0—\xa0отложенный постинг в социальные сети\n[Ezgif](http://ezgif.com)\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\n[Make Beliefs Comix](http://www.makebeliefscomix.com/)\xa0—\xa0создание комиксов\n']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[['[Онлайн-инструменты для любителей PDF](https://www.ilovepdf.com/ru) —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[['\n[Tutorialspoint](https://www.tutorialspoint.com/index.htm)\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\n[html academy](https://htmlacademy.ru/)\xa0— на сайте есть отличный бесплатный [базовый курс по\xa0html и\xa0css](https://htmlacademy.ru/program), «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\n[Codecademy](https://www.codecademy.com/)\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1522,17 +1614,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: [https://portal.hse.ru/photo](https://portal.hse.ru/photo)']]</t>
+          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1559,32 +1663,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать [утвержденному стандарту](http://www.hse.ru/docs/164385300.html).'], [' **Дизайн сайтов** должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0[брендбуку НИУ ВШЭ](https://www.hse.ru/info/brandbook/), а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций [visual@hse.ru](mailto:visual@hse.ru).'], [' **Рекомендации по цветовой палитре** – см. [брендбук НИУ ВШЭ](https://www.hse.ru/info/brandbook/#palette) (для цифровых носителей).'], [' **Сайты размещаются в домене hse.ru** и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. [регламент](http://www.hse.ru/docs/53295972.html)).'], [' **Англоязычные версии сайтов** создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], [' **Ответственность за своевременное размещение и актуализацию информации** несет руководитель подразделения.'], [' **Обновление информации** осуществляется [ответственным](https://handbook.hse.ru/responsibilities/fresponsible) от структурного подразделения за ведение сайта.'], [' **Заявку\xa0на создание\xa0сайта** нужно прислать на [portal@hse.ru](mailto:portal@hse.ru), указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
+          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['   [  **Основные  принципы  ** работы  с  сайтом](https://portal.hse.ru/site)  [Как  получить   **доступ  ** к  редактированию  ](https://portal.hse.ru/helpsite)[Редактирование  блока  «  **Функционал  сотрудников  подразделений ** »](https://portal.hse.ru/resp)  [Редактирование  блока  «  **Показ  в  списках  и  на  картах» ** ](https://portal.hse.ru/metaunits)  [Раздел   **«Сотрудники» ** ](https://portal.hse.ru/section-persons)  [Размещение   **новостей ** ](https://portal.hse.ru/nov)  [Размещение   **анонсов ** ](https://portal.hse.ru/instann)  [  **Создание  ** статических  **страниц** ](http://portal.hse.ru/pages/)  **Простая ** статическая  **страниц** а  **Составная ** статическая  **страниц** а   **Создание  таблиц ** Оптимизация  **фотографий ** Размещение  **баннера  Создание  ** опроса/регистрационной  формы  Как  передать  данные  в  **CRM ** Размещение  **мета-тегов ** Рекомендации  по  поисковой  оптимизации  В  помощь  редактору:  фотобанки,  инструменты  Шрифт  HSE  Sans  Редактирование  английской  версии  Русско-английский  глоссарий  терминов  ВШЭ   ']]</t>
+          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['[Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге](https://handbook.hse.ru/responsibilities/fresponsible)']]</t>
+          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['[О JavaScript и iframe на сайтах подразделений](http://portal.hse.ru/script)\xa0']]</t>
+          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['[HSESans/HSESlab](/mirror/pubs/share/520264634.zip) (ZIP, 228 Кб)', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1608,20 +1724,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0[здесь](https://portal.hse.ru/personalpages).']]</t>
+          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать __адрес сайта/persons__ (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит [https://portal.hse.ru/persons](https://portal.hse.ru/persons)). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: __ Данные → Должности__ . Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1649,24 +1769,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['Сотрудники НИУ ВШЭ (за\xa0исключением сотрудников категории административно-хозяйственного персонала, не\xa0занимающих руководящие должности) обязаны иметь заполненную в\xa0соответствии со\xa0[Стандартом](https://www.hse.ru/docs/751535174.html) персональную страницу.'], ['Персональная страница появляется автоматически после внесения приказа о\xa0трудоустройстве сотрудника в\xa0базу [Управления персонала](http://hr.hse.ru/) (ЗиК, ИС-ПРО) и\xa0показывается в\xa0[общем списке преподавателей и\xa0сотрудников](http://www.hse.ru/org/persons/), а\xa0также в\xa0списках сотрудников на\xa0страницах подразделений.'], ['Автоматически появляются только страницы **штатных сотрудников и\xa0преподавателей, имеющих договор ГПХ ППС** (такие сотрудники показываются на\xa0портале с\xa0должностью «Приглашенный преподаватель»).'], ['Если необходимо, чтобы персональная страница появилась у **сотрудника, работающего по обычному договору ГПХ** , то при оформлении договора в [СЭД](https://confluence.hse.ru/pages/viewpage.action?pageId=44447483)\xa0необходимо поставить соответствующую галочку. Для уже оформленных договоров галочку нужно поставить в [кадровой системе ЗиК](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4).\xa0'], ['Посмотреть, где находится галочка в интерфейсе СЭД'], [''], ['Сотрудники несут ответственность за\xa0актуальность информации, размещенной на\xa0их\xa0персональных страницах.']]</t>
+          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['На\xa0странице должны быть сведения, определенные [Стандартом](https://www.hse.ru/docs/751535174.html). Также сотрудник может разместить там любую информацию, не\xa0нарушающую законов\xa0РФ и\xa0не\xa0противоречащую [декларации ценностей](https://www.hse.ru/info/statement/) университета.'], ['Информацию на\xa0персональную страницу сотрудник вносит самостоятельно (за\xa0исключением сведений, которые отображаются на\xa0странице из\xa0баз данных университета). При возникновении вопросов сотрудник обращается к\xa0[ответственному за\xa0персональные страницы](https://handbook.hse.ru/responsibilities/managers) или к\xa0руководителю подразделения (в\xa0случае отсутствия ответственного в\xa0подразделении).'], ['\n\xa0\n\n **Доступ** \xa0к редактированию персональной страницы осуществляется по логину и паролю от ЕЛК (при наличии доступа к корпоративной почты).\n **Консультации** по\xa0вопросам наполнения персональных страниц осуществляют [ответственные от\xa0подразделений](https://handbook.hse.ru/responsibilities/managers).\n\n']]</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[['Часть информации попадает на\xa0персональные страницы из\xa0баз данных университета, поэтому важно, чтобы подразделения, отвечающие за\xa0внесение информации в\xa0базы, вовремя получали необходимые данные. Сведения, поступающие из\xa0баз данных университета, сотрудник не\xa0может исправить самостоятельно.'], [' __Пример: __ __Если сотрудник не\xa0предоставил в\xa0Управление персонала сведения о\xa0награде или ученой степени, то\xa0эти сведения не\xa0появятся на\xa0его персональной странице. __ '], ['Сведения, поступающие из\xa0систем ЗиК (Москва), ИС-ПРО (кампусы), АСАВ, РУЗ, LMS, базы данных портала могут изменить только сотрудники подразделений, отвечающие за\xa0информацию из\xa0этих систем:'], ['\n\n\nФамилия Имя Отчество (ЗиК\xa0/ ИС-ПРО)\nПол (ЗиК\xa0/ ИС-ПРО)\nПодразделение (ЗиК\xa0/ ИС-ПРО)\nДолжность / Возложение обязанностей (ЗиК\xa0/ ИС-ПРО)\nНачало работы в\xa0НИУ ВШЭ (ЗиК\xa0/ ИС-ПРО)\nНаучно-педагогический стаж (ЗиК\xa0/ ИС-ПРО)\nОбразование (ЗиК\xa0/ ИС-ПРО)\nУченая степень (ЗиК\xa0/ ИС-ПРО)\n\n\n\n\nУченое звание (ЗиК\xa0/ ИС-ПРО)\nДостижения и\xa0поощрения (ЗиК\xa0/ ИС-ПРО)\nАкадемические надбавки (база данных портала)\nУчебные курсы (АСАВ)\nРуководство аспирантами (АСАВ)\nРуководство ВКР (LMS)\nРасписание (РУЗ)\n\n\n\n\nУчастие в\xa0административном кадровом резерве (база данных портала)\nУчастие в\xa0академическом кадровом резерве (база данных портала)\nПатенты и\xa0свидетельства о\xa0правах интеллектуальной собственности (база данных портала)\nПубликации издательского дома ВШЭ (база данных портала)\n\n\n'], ['Сведения может править только Управление персонала. Изменения будут видны на\xa0портале в\xa0течение суток после их\xa0внесения в\xa0ИС-ПРО', '**Сведения из\xa0ИС-ПРО:**\n\nФамилия Имя ОтчествоПол Подразделение и\xa0должность Начало работы в\xa0НИУ ВШЭ Научно-педагогический стаж\nОбразование Ученая степень Ученое званиеДостижения и\xa0поощрения*\n\n', '**Сотрудники, отвечающие за\xa0внесения правок в\xa0Москве:**\n\n\n[Щегольская Татьяна](https://www.hse.ru/org/persons/223985293)\xa0(+\xa0[[Наталья Малыхина](https://www.hse.ru/org/persons/133908050)](https://www.hse.ru/org/persons/133908050)) (штатные сотрудники с\xa0российским гражданством).\xa0 __[ __[ __[ __[Запросить консультацию](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ \n\n[Ялугина Анастасия](https://www.hse.ru/org/persons/195384176)\xa0(+\xa0[Наталия Нижаловская](https://www.hse.ru/org/persons/3626301)) (сотрудники, работающие\xa0по\xa0договорам ГПХ ППС)\xa0 __[ __[ __[ __[Запросить консультацию](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ \n[Старокадомская Вероника](https://www.hse.ru/org/persons/216408417)\xa0(сотрудники с\xa0иностранным гражданством)\xa0 __[ __[ __[ __[Запросить консультацию](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ \n[[Наталья Малыхина](https://www.hse.ru/org/persons/133908050)](https://www.hse.ru/org/persons/133908050)\xa0(информация о\xa0наградах вне зависимости от\xa0гражданства)\xa0 __[ __[ __[ __[Запросить консультацию](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ ](https://bpm.hse.ru/Runtime/Runtime/Form/RSM__f__NewRequest/?RequestType=4)__ \n\nВ кампусах правки вносят кадровые службы кампусов.\n', '**Что сотрудник может дополнить самостоятельно:**\n\nОбразование: можно уточнить\xa01) уровень образования (например, указать BSc или\xa0BA для бакалавриата, полученного зарубежом), 2) факультет, 3) специальность на\xa0английском языке (по\xa0умолчанию перевода специальности на\xa0английский язык нет).\nУченая степень: можно уточнить тему диссертации и\xa0место защиты.\n\n'], ['Изменения будут видны на\xa0портале после синхронизации баз данных. Синхронизация происходит приблизительно раз в\xa0месяц либо по\xa0запросу от\xa0подразделения, отвечающего за\xa0информацию.', '**Учебные курсы**\nСведения формируются на\xa0основе информации из\xa0Рабочих учебных планов и\xa0модуля нагрузки преподавателей. Правки вносят ответственные от\xa0подразделений.Курирует систему заместитель руководителя Центра сервиса «Департамент» [Игнатова Наталия Генадиевна](https://www.hse.ru/org/persons/164477791)\n __Синхронизация с\xa0порталом:__ \n\nучебных курсов\xa0— по\xa0запросу, приблизительно раз месяц\nпрограммы дисциплин\xa0— каждый час\nнагрузка преподавателей\xa0— ежедневно\n\n __К\xa0кому обращаться для внесения правок:__ \n\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\nответственный за\xa0планирование нагрузки преподавателей\n[ответственный за\xa0прикрепление программы дисциплин в\xa0АСАВ](https://handbook.hse.ru/responsibilities/asav_syllabi)\n\n', '**Научное руководство аспирантами**\nСведения может править [Управление аспирантуры и\xa0докторантуры](https://www.hse.ru/org/hse/aspirant/department)\nСинхронизация с\xa0порталом\xa0— по\xa0запросу или раз в\xa0два месяца.\n'], ['Сведения вносят сотрудники учебных офисов, курирует РУЗ заместитель руководителя Центра сервиса «Департамент» [Игнатова Наталия Генадиевна](https://www.hse.ru/org/persons/164477791)', ' __К\xa0кому обращаться для внесения правок:__ ', '\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\nсотрудники учебных офисов\n'], ['Сведения вносят сотрудники учебных офисов, курирует LMS заместитель руководителя Центра сервиса «Департамент» [Игнатова Наталия Генадиевна](https://www.hse.ru/org/persons/164477791))', '**ВКР (выпускная квалификационная работа)**\nСинхронизация\xa0— ежедневно.\n __К\xa0кому обращаться для внесения правок:__ \n\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\nсотрудники учебных офисов\n\n'], ['Изменения видны сразу после внесения.', '**Участие в\xa0административном кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0руководителя программы [Юлии Гринкевич](//www.hse.ru/org/persons/74155510).\n __К\xa0кому обращаться для внесения правок:__ \n\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\nруководитель программы [Юлия Гринкевич](//www.hse.ru/org/persons/74155510)\n\n', '**Участие в\xa0академическом кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0[Управления академического развития](http://academics.hse.ru/kr/main)\n __К\xa0кому обращаться для внесения правок__ :\n\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\nруководитель программы [Управление академического развития](http://academics.hse.ru/kr/main)\n\n', '**Патенты и\xa0свидетельства о\xa0правах интеллектуальной собственности**\nСведения вносит [Дирекция по\xa0правовым вопросам](http://legal.hse.ru/)\n __К\xa0кому обращаться для внесения правок:__ \n\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\n[Дирекция по\xa0правовым вопросам](http://legal.hse.ru/)\n\n', '**Академические надбавки**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Научного фонда (Ольга Чурикова)\n __К\xa0кому обращаться для внесения правок__ :\n\n[ответственный от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers)\nначальник управления академических исследований [Ольга Чурикова](https://www.hse.ru/org/persons/107707)\n\n', '**Публикации**\nАвтоматически на\xa0портале появляются только публикации [Издательского дома ВШЭ](https://id.hse.ru/). Остальные публикации вносит представитель подразделения либо сотрудник самостоятельно. Вносить изменения в\xa0публикацию могут: авторы публикации, сотрудник, создавший публикацию, Управление развития и\xa0поддержки портала по\xa0заявке на\xa0адрес [publications@hse.ru](mailto:publications@hse.ru). Подробнее см.[ Справочник по\xa0публикациям.](https://www.hse.ru/web/publication)\n']]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[['[Доступ к\xa0редактированию страниц](#access)'], ['[Как это работает](#how)'], ['[Добавление новых вкладок](#addnew)'], ['[Работа с\xa0вкладками](#work)'], ['[Форматирование](#clear)'], ['[Научные интересы](#prof)'], ['[Фотография](#foto)'], ['[Scopus, SPIN РИНЦ, ORCID...](#scopus)'], ['[Английская версия персональной страницы](#english)'], ['Персональные страницы может редактировать:', '\nСам сотрудник.\nПредставитель персоны (директора, декана, проректора).\nОтветственный за\xa0персональные страницы (редактирование только персональных страниц сотрудников определенного подразделения).\n', 'Для получения прав редактирования необходимо отправить запрос с\xa0вашей корпоративной почты на\xa0адрес [portal@hse.ru](mailto:portal@hse.ru). Обязательно укажите, какие права необходимо предоставить:', '\nпредставитель персоны (указываете, чью страницу будете редактировать);\nответственный за\xa0персональные страницы (указываете подразделение, страницы сотрудников которого будете редактировать).\n'], ['Непосредственно в\xa0личном кабинете есть инструкция по\xa0редактированию страниц: большая синяя кнопка «Как это работает» (в\xa0английской версии\xa0— How it\xa0works).', ''], ['Если вы\xa0собираетесь добавить информацию, которая не\xa0подходит для предложенных вкладок, вы\xa0можете создать собственную вкладку. Для этого нажмите «Добавить вкладку», введите заголовок и\xa0нажмите «ОК».', '', 'После этого в\xa0созданной вкладке можно добавить необходимую информацию. Нажимаете «Добавить текст» и\xa0заполняете необходимые поля.'], ['Те\xa0разделы, рядом с\xa0которыми стоит «замок», формируются автоматически из\xa0различных баз Вышки. Вы\xa0не\xa0можете вносить в\xa0них изменения, удалять их\xa0или перемещать. Разделы, не\xa0отмеченные этим символом, можно легко перетаскивать мышкой, меняя их\xa0порядок. Добавить новый раздел можно, нажав на\xa0«Добавить текст». Созданный раздел также можно перетащить в\xa0любую вкладку.', 'Если вы\xa0удалили раздел, который по\xa0умолчанию предусмотрен в\xa0одной из\xa0вкладок, и\xa0информация, представленная в\xa0нем, формируется автоматически, то\xa0вы\xa0легко можете восстановить раздел, нажав символ «+» внизу вкладки. При этом будет показан список разделов, подлежащих восстановлению.', '', 'Если вы\xa0удалили раздел, который вы\xa0создали вручную, восстановить его автоматически будет невозможно. Вам придётся заново вносить всю информацию.', 'Помните! Все изменения сохраняются только после того, как вы\xa0нажали кнопку «Сохранить». Если вы\xa0случайно что-то удалили, добавили что-то не\xa0то, просто закройте страницу без сохранения изменений.', '', '\xa0'], ['Чтобы текст во\xa0всех вкладках был одинаковым, необходимо добавлять информацию по\xa0одному из\xa0следующих алгоритмов:', '1) заполнять все вкладки и\xa0поля непосредственно в\xa0личном кабинете, не\xa0копируя информацию из\xa0текстовых редакторов, браузера и\xa0т.п.;', '2) весь текст, который вы\xa0собираетесь добавить в\xa0текстовое поле, необходимо добавить сначала в\xa0блокнот, скопировать из\xa0блокнота и\xa0вставить непосредственно в\xa0текстовое поле личного кабинета;', '3) при вставке текста использовать кнопку «Вставка из\xa0Word». В\xa0случае, если текст всё равно выглядит не\xa0так, как текст на\xa0автоматических вкладках, использовать кнопку «Убрать форматирование»;', '4) при вставке текста использовать кнопку «Вставить только текст» (в\xa0этом случае всё форматирование пропадёт);', '5) после вставки текста в\xa0текстовое поле выделить весь текст и\xa0нажать кнопку «Убрать форматирование».', '', '\xa0'], ['При добавлении интересов нажимаем «Добавить рус.», после этого пишем ключевое слово и\xa0нажимаем «Найти». Отобразится список с\xa0упоминанием искомого слова. Выбираем нужное слово или словосочетание и\xa0нажимаем кнопку «Выбрать».', '\xa0'], ['Фотография загружается из\xa0базы службы безопасности. Система такова: раз в\xa0неделю Дирекция по\xa0безопасности присылает фото в\xa0Управление персонала, которое заносит их\xa0в\xa0ИС-ПРО. Однако сотрудник может залить и\xa0отредактировать фото самостоятельно в\xa0[SmartPoint](https://lk.hse.ru/) (ЕЛК)'], ['Инструкции:', '\n[SPIN РИНЦ](http://elibrary.ru/projects/science_index/author_tutorial.asp)\n[ORCID](http://orcid.org/help)\n[ResearcherID](https://www.researcherid.com/resources/html/dsy5769-TRS.html)\n[Google Scholar](https://scholar.google.com/intl/en/scholar/citations.html#setup)\n', 'По\xa0всем вопросам, связанным с\xa0данной базой, необходимо обращаться к\xa0[ответственному от\xa0подразделения](https://handbook.hse.ru/responsibilities/managers).'], ['Для активации английской версии необходимо в\xa0личном кабинете:', '\nЗаполнить поле ФИО на\xa0английском\nЗаполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В\xa0частности, необходимо заполнить поля Специальность в\xa0разделах Образование и\xa0Ученая степень\nСохранить все изменения\nВыбрать пункт «Статус английской версии» (британский флажок)\n', 'Подробнее см.: [Работа с\xa0английскими версиями персональных страниц](https://portal.hse.ru/instr#personal)']]</t>
-        </is>
-      </c>
+          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1694,29 +1806,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['[Отдел развития и поддержки англоязычной версии портала ](http://portal.hse.ru/persons/) Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
+          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Персональные страницы](#personal)[Подразделения](#division)[Образовательные программы](#programme)** ']]</t>
+          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], [' **Для активации английской версии необходимо в личном кабинете:** '], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее **поставить статус\xa0 «Черновик».** '], ['После выставления статуса «Черновик» **страница поступает к редактору портала** , который проверяет, что информация на странице отображается корректно и **меняет статус на «Проверено»** , после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, **осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями** по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0[Марии Никитиной](https://www.hse.ru/org/persons/8278043).', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. **Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.** ', 'Оперативное поддержание» подразумевает **регулярное** размещение **анонсов англоязычных мероприятий и новостей** в английской новостной ленте, а также **обновление статических страниц** .'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать **заявку на активацию английской версии** вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0[Марии Никитиной](https://www.hse.ru/org/persons/8278043). **Нельзя** выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно **сначала** прислать тексты, а **потом** английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при **первичном ** наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала [Марии Никитиной](https://www.hse.ru/org/persons/8278043). Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' **Принципы работы с сайтом** абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать [тут](https://portal.hse.ru/im). ', ' Для **создания статической страницы** в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь **одинаковые** технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться **глоссарием ВШЭ и стилистическим справочником** (расположены [тут](http://www.hse.ru/org/hse/thesaurus/)). На портале исторически был принят **британский вариант английского языка** , поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0[Марии Никитиной](https://www.hse.ru/org/persons/8278043). Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить **нельзя** . Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах **не транслируются автоматически** на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как **минимум раз в месяц** . В английской версии необходимы **новости, интересные иностранной аудитории** – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, **без использования автоматических переводчиков** (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в [Инструкции по размещению английских новостей в новостной ленте](https://www.hse.ru/data/2015/12/14/1134511751/%D0%A0%D0%B0%D0%B7%D0%BC%D0%B5%D1%89%D0%B5%D0%BD%D0%B8%D0%B5%20%D0%B0%D0%BD%D0%B3%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D1%85%20%D0%BD%D0%BE%D0%B2%D0%BE%D1%81%D1%82%D0%B5%D0%B9%20%D0%B2%20%D0%BD%D0%BE%D0%B2%D0%BE%D1%81%D1%82%D0%BD%D0%BE%D0%B9%20%D0%BB%D0%B5%D0%BD%D1%82%D0%B5.docx) Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', ' ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>[['Англоязычная версия сайта в обязательном порядке создается **для образовательных программ, осуществляемых полностью или частично на английском языке** . Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0[Марии Никитиной](https://www.hse.ru/org/persons/8278043). Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь **одинаковые** технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены [тут](http://www.hse.ru/org/hse/thesaurus/)) На портале исторически был принят **британский вариант английского языка** , поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно. Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы: ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - [https://www.hse.ru/en/ma/sti/classprofile](https://www.hse.ru/en/ma/sti/classprofile)) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' **Список переводов рубрик для сайтов образовательных программ:Название раздела/подразделаEnglish titles** Учебные курсы Courses Преподаватели Faculty Документы Documents Расписание Timetable Тизер дня открытых дверей Open House Академический совет Academic Council Академический руководитель Academic Supervisor Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы Study Office / Programme Coordinator Важные объявления Important Announcements Новости News Анонсы Events \xa0 \xa0 Краткий паспорт программы Programme Facts О программе Programme Overview Партнеры Partnerships / Double degree Programme (при наличии) Профили студентов (в русской версии Достижения студентов) Student Profiles Выпускники Alumni Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел) Research Seminar Проектная и исследовательская работа (в англ версии не обязательный раздел) Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов) Паспорт образовательной программы Programme Facts Будущая профессия Career Opportunitiies Траектории поступления How to Apply\xa0 Подготовка Requirements **Информационный блок с полезными ссылками для студентов программы** \xa0 Рейтинги Student Rating Студенческая мобильность Academic Mobility Практическая подготовка (Практика)\xa0 Practical Training (Internship) Курсовые и выпускные квалификационные работы (ВКР) \xa0 Term Papers and Student Theses Итоговая аттестация \xa0 Final Assessment Рекомендованные онлайн-курсы \xa0 Recommended MOOCs \xa0Скачать одним файлом: [Английские названия для рубрик](/data/2016/11/14/1110330996/Английские названия для рубрик.docx) (DOCX, 17 Кб) '], [' Новости необходимо обновлять как **минимум раз в два месяца** . В английской версии необходимы новости, **интересные иностранной аудитории** – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, **без использования автоматических переводчиков** (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в [Инструкции по размещению английских новостей в новостной ленте](https://www.hse.ru/data/2015/12/14/1134511751/%D0%A0%D0%B0%D0%B7%D0%BC%D0%B5%D1%89%D0%B5%D0%BD%D0%B8%D0%B5%20%D0%B0%D0%BD%D0%B3%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D1%85%20%D0%BD%D0%BE%D0%B2%D0%BE%D1%81%D1%82%D0%B5%D0%B9%20%D0%B2%20%D0%BD%D0%BE%D0%B2%D0%BE%D1%81%D1%82%D0%BD%D0%BE%D0%B9%20%D0%BB%D0%B5%D0%BD%D1%82%D0%B5.docx) Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты [выше](#news_divisions), в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
-        </is>
-      </c>
+          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1743,24 +1847,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>[['\n[Здания](https://www.hse.ru/buildinghse)\n[Наука](https://www.hse.ru/science)\n[Поиск по подразделениям](https://www.hse.ru/org/units)\n[Сведения об образовательной организации](https://www.hse.ru/sveden/struct#msk)\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[[' **Телефон и адрес** '], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0[portal@hse.ru](mailto:portal@hse.ru).'], ['\n **Почему важно указать телефон подразделения** \n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], [' **Электронная почта** '], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], [' **Уровень подготовки** '], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], [' **Тип подразделения по Яндексу ** (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], [' **Категория подразделения** '], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к [Марии Юдкевич](https://www.hse.ru/staff/yudkevich))'], [' **Тематика исследований** '], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе [Наука](https://www.hse.ru/science), а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1788,15 +1880,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
+          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1825,44 +1921,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['Списки показываются в [справочнике сотрудника](https://handbook.hse.ru/adm_srv#173372447), а также в [личном кабинете сотрудника](https://www.hse.ru/user/).']]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[['\n[Ответственные от факультетов и филиалов за редактирование страниц подразделений](https://handbook.hse.ru/responsibilities/fresponsible)\n[Ответственные за персональные страницы сотрудников](https://handbook.hse.ru/responsibilities/managers)\n']]</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>[[' **Управление по информационным ресурсам выдает права** (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на [portal@hse.ru](mailto:portal@hse.ru).']]</t>
-        </is>
-      </c>
+          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1886,29 +1958,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Описание документа](#descrip)[Соцсети](#net)** ']]</t>
+          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['[https://elearning.hse.ru/mooc](https://elearning.hse.ru/mooc) Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', '[https://www.hse.ru/abiturient](https://www.hse.ru/abiturient) Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', '[https://www.hse.ru/figures/](https://www.hse.ru/figures/) Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', '[https://ma.hse.ru/](https://ma.hse.ru/) Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], [' **Картинка 1: когда все заполнено** '], [''], [' **Картинка 2: когда ничего не заполнено** '], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0[ВКонтакте pages.clearCache](https://vk.com/dev/pages.clearCache). Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
-        </is>
-      </c>
+          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1935,39 +2003,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Заголовки страниц](#titlepage)[Мета-описание страницы](#meta)[Заголовки в тексте](#title)[Ссылки](#links)[Изображения](#image)[Общие рекомендации](#common)** ']]</t>
+          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[[' **Заголовки должны соответствовать содержанию страницы** '], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], [' **Используйте краткие, но содержательные заголовки** '], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[[' **Описания должны точно отражать содержание страницы** '], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], [' **Используйте разные описания для разных страниц** '], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: [https://portal.hse.ru/meta](https://portal.hse.ru/meta)']]</t>
+          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[[' **Предназначение и примеры** '], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: [https://portal.hse.ru/format/#headrs](https://portal.hse.ru/format/#headrs)'], [' **Представьте, что вы пишете обзор** '], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' **Не злоупотребляйте заголовками** '], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[[' **Тщательно продумывайте тексты ссылок** '], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], [' **Используйте информативный текст** '], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], [' **Текст должен быть лаконичным** '], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], [' **Подберите текст ссылок и для внутренних URL** '], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>[[' Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], [' **Используйте краткие описательные имена файлов и текст в атрибутах alt** '], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], [' **Добавляйте текст в атрибуты alt, если используете изображения как ссылки** '], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>[[' **Пишите легко читаемые тексты** '], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
+          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1992,17 +2052,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0[portal@hse.ru](mailto:portal@hse.ru). В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь [доступ в личный кабинет](http://portal.hse.ru/help) на портале.']]</t>
+          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2033,29 +2093,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки **[Доступ к редактированию](#edit)[Наполнение сайта](#begin)[Размещение текстов](#inf)[Размещение новостей](#news)** ']]</t>
+          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0[здесь](https://portal.hse.ru/helpsite).'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0[https://www.hse.ru/adm/](https://www.hse.ru/adm/)\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано [здесь](https://portal.hse.ru/instr).']]</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы ([инструкция по созданию страницы](https://portal.hse.ru/pages/)) Новости ([инструкция по созданию новости](https://portal.hse.ru/nov)) Анонсы ([инструкция по созданию анонса](https://portal.hse.ru/instann)) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «[Функционал сотрудников подразделений](https://portal.hse.ru/resp)» и «[Показ в списках и на картах](https://portal.hse.ru/metaunits)» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про [размещение текстов](https://portal.hse.ru/format) на портале и [работу с таблицами](https://portal.hse.ru/tables).'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0[portal@hse.ru](mailto:portal@hse.ru), указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано [здесь](http://portal.hse.ru/personalpages).']]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0[[здесь](https://portal.hse.ru/seo_recommends)](https://portal.hse.ru/sostav). Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0[[portal@hse.ru](mailto:portal@hse.ru)](mailto:[portal@hse.ru](mailto:portal@hse.ru)). Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно [оформить текст как заголовок](https://portal.hse.ru/format/#headrs), а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0[[здесь](https://portal.hse.ru/seo_recommends)](https://portal.hse.ru/sostav). Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0[[portal@hse.ru](mailto:portal@hse.ru)](mailto:[portal@hse.ru](mailto:portal@hse.ru)). Мы постараемся помочь. ', ' Категорически нельзя: Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0[здесь](http://portal.hse.ru/format/). Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран. ']]</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0[инструкции](https://portal.hse.ru/nov) и закреплено в\xa0[Стандарте](https://www.hse.ru/docs/164385300.html). Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0[инструкцию](https://portal.hse.ru/format/). Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0[бесплатного фотобанка](https://portal.hse.ru/tools). Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
-        </is>
-      </c>
+          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2082,94 +2130,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала ([portal@hse.ru](mailto:portal@hse.ru)). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать [турбо-версию](https://portal.hse.ru/progs/#turbo) сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
+          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[[' Служба поддержки портала,\xa0 [portal@hse.ru](mailto:portal@hse.ru): Получение [редакторских прав](https://portal.hse.ru/helpsite) Размещение видео на главной странице (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам» (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже [НИКИТИНА МАРИЯ КОНСТАНТИНОВНА](https://www.hse.ru/org/persons/8278043),\xa0 [УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА](https://portal.hse.ru/) Английская версия сайта [Райан Сюзанна Халилевна](https://www.hse.ru/org/persons/142303365),\xa0 [Центр поддержки и мониторинга образовательных программ](https://www.hse.ru/deprog/219833647/) Раздел\xa0«Руководство» (руководители, менеджеры) [Игнатова Наталия Генадиевна](https://www.hse.ru/org/persons/164477791), [Центр сервиса «Департамент»](https://departmentcentre.hse.ru/) Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы» [Знак Светлана Александровна](https://www.hse.ru/org/persons/121172347), [Залесская Светлана Николаевна](https://www.hse.ru/org/persons/220868404) [Управление развития образовательных программ](https://www.hse.ru/deprog/Department2/) Раздел «Паспорт образовательной программы» [Аббасова Елена Сергеевна](https://www.hse.ru/org/persons/101532960), [Центр сервиса «Студент»](https://studentcentre.hse.ru/) Страница «Число студентов и вакантные бюджетные места» [Редактор подразделения](https://handbook.hse.ru/responsibilities/fresponsible), реализующего программу Размещение анонса\xa0в шапке программы [Шишков Олег Геннадьевич](https://www.hse.ru/staff/oleg_shishkov), [Рзаева Карина Закировна](https://www.hse.ru/org/persons/222715891) [Дирекция по маркетинговым коммуникациям](https://digitalmedia.hse.ru/socmedia) Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ ']]</t>
+          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[['[Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ](https://www.hse.ru/docs/164385300.html) (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['[Положение об основной образовательной программе высшего образования](https://www.hse.ru/docs/490481899.html)'], [' Быстрые ссылки [ **Как начать?** ](https://portal.hse.ru/progs/#start) [ **Что делать, если программа новая и у нее еще нет сайта?** ](https://portal.hse.ru/progs/#new) [ **Как подготовить SEO-оптимизированный текст на сайт** ](https://portal.hse.ru/progs/#seo) [ **Структура сайта образовательной программы** ](https://portal.hse.ru/progs/#structure) [ **Шапка сайта образовательной программы** ](https://portal.hse.ru/progs/#cap) [ **Размещение анонса в шапке сайта** ](https://portal.hse.ru/progs/#tizer) [ **Главная страница программы** ](https://portal.hse.ru/progs/#main) [ **Верхнее меню (разделы программы)** ](https://portal.hse.ru/progs/#up) [ **Общее меню** ](https://portal.hse.ru/progs/#common) [ **Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком»)** ](https://portal.hse.ru/progs/#newmenu) [ **Адрес (Текстовые блоки)** ](https://portal.hse.ru/progs/#address) [ **Учебный офис** ](https://portal.hse.ru/progs/#office) [ **Социальные кнопки** ](https://portal.hse.ru/progs/#social) [ **Буклет программы** ](https://portal.hse.ru/progs/#booklet) [ **Турбо-версия** ](https://portal.hse.ru/progs/#turbo) [ **Английская версия** ](https://portal.hse.ru/progs/#english) **[Таблицы](https://portal.hse.ru/tables)[Регистрационная форма](https://portal.hse.ru/poll)** ']]</t>
+          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0[portal@hse.ru](mailto:portal@hse.ru)\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт [доступ в личный кабинет портала](http://portal.hse.ru/help). Заявки можно присылать одним письмом.\xa0']]</t>
+          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
+          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала ([portal@hse.ru](mailto:portal@hse.ru)) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' **Главная страницаАбитуриентам** (для программ, ведущих набор в текущем году) **Студентам** (для программ, имеющих студентов) **Выпускникам** (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются [Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ](https://www.hse.ru/docs/164385300.html).'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' **Аннотация программы** , объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; **Кнопки обратной связи** (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - [https://portal.hse.ru/poll](https://portal.hse.ru/poll); **Тизер ** (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . [Подробнее о размещении анонса.](https://portal.hse.ru/instann) Сам тизер в шапку добавляется не на сайте программы, а на ** __сайте подразделения__ ** , который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы. Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], [' **Метаинформация** '], [' Основные данные о программе. Состав элементов в блоки неизменен. Для **русской ** версии — это **срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации** . В **английской ** версии — это **срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации** . Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на [[portal@hse.ru](mailto:portal@hse.ru)](mailto:[portal@hse.ru](mailto:portal@hse.ru)), предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии [бакалавриата](https://ba.hse.ru/) или [магистратуры](https://ma.hse.ru/). Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в **английской ** версии виде диапазона цен\xa0в том случае, если есть [точные данные о стипендии для иностранцев](https://admissions.hse.ru/undergraduate-apply/financial-aid#pagetop) в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки [[portal@hse.ru](mailto:portal@hse.ru)](mailto:[portal@hse.ru](mailto:portal@hse.ru)) может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], [' **Университеты-партнеры образовательной программы** '], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на [portal@hse.ru](mailto:portal@hse.ru) нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. [Стандарт](https://www.hse.ru/docs/164385300.html). '], [' **Информация об ОП (раскрывающиеся блоки)** '], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], [' **Видео (опционально)** '], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть [здесь](https://datastudio.google.com/reporting/174c484f-47cd-4cd5-9f72-8fab74a7a93e). Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к [Шишкову Олегу Геннадьевичу](https://www.hse.ru/staff/oleg_shishkov) или\xa0[Рзаевой Карине Закировне](https://www.hse.ru/org/persons/222715891). Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0[Семеновой Алине Викторовне](https://www.hse.ru/org/persons/379701853). Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала [portal@hse.ru](mailto:portal@hse.ru). '], [' **Важные объявления** '], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], [' **Мероприятия** '], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: [https://portal.hse.ru/instann](https://portal.hse.ru/instann) Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0[виде тизера](https://portal.hse.ru/progs/#tizer). Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0[[«Разместить в подразделении»](https://portal.hse.ru/instann#import)](https://portal.hse.ru/instann#import)\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал [[«Разместить в подразделении»](https://portal.hse.ru/instann#import)](https://portal.hse.ru/instann#import) 3. В том случае если у мероприятия обширная программа (например, как здесь [https://www.hse.ru/dod2021](https://www.hse.ru/dod2021)), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0[portal@hse.ru](mailto:portal@hse.ru)\xa0и приложить к письму наполнение для сайта.\xa0 '], [' **Новости** '], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: г **лавное, абитуриентам, студентам, выпускникам,** \xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. [Инструкция по размещению новостей](https://portal.hse.ru/nov). '], [' **Похожие программы** '], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы. Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], [' **Вокруг нас (социальный блок)** '], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную! В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока. Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей. '], [' **Меню (правая колонка)** '], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы). '], [' **Руководство программы (руководители, менеджеры)** '], [' Раздел редактируется\xa0[Центром поддержки и мониторинга образовательных программ](https://www.hse.ru/deprog/219833647/). По вопросам внесения изменений необходимо обращаться к\xa0[Сюзанне Райан.](https://www.hse.ru/org/persons/142303365) ']]</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на [portal@hse.ru](mailto:portal@hse.ru).'], [' **Раздел О программе** '], [' В данном разделе размещается общая информация о программе. В раздел\xa0« **О программе** » должны входить следующие пункты: **О программе** * (статстраница с техническим именем **about** ) **Специализации** (при наличии; специализации добавляются как подпункты меню) **Партнеры** (статстраница с техническим именем **partners** ). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. **Достижения студентов** (статстраница с техническим именем **success** ). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. **Выпускники** (статстраница с техническим именем **alumni** ). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. **Научно-исследовательский семинар** (статстраница с техническим именем **seminar** ). Пункт не является обязательным. Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное [Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком»](https://portal.hse.ru/progs/#newmenu) '], [' **Раздел Абитуриентам (если есть набор)** '], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0[portal@hse.ru](mailto:portal@hse.ru).\xa0 В раздел «Абитуриентам» входят следующие обязательные пункты: **Траектории поступления** (статстраница с техническим именем **tracks** ) **Будущая профессия** (статстраница с техническим именем **career** ) **Подготовка** (статстраница с техническим именем **requirements** ) Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам [Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком»](https://portal.hse.ru/progs/#newmenu) '], [' **Раздел Студентам (если есть студенты)** '], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам». **Серый блок** В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего. Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ ([https://studlife.hse.ru/studentlife](https://studlife.hse.ru/studentlife)) Спорт ([http://sport.hse.ru/](http://sport.hse.ru/)) Студенческий совет ВШЭ ([http://studsovet.hse.ru/](http://studsovet.hse.ru/)) Центр развития карьеры ([http://career.hse.ru/](http://career.hse.ru/)) Блок 2. Социальная сфера Стипендии ([http://www.hse.ru/scholarships/](http://www.hse.ru/scholarships/)) Социальная поддержка ([http://www.hse.ru/org/hse/aup/social/](http://www.hse.ru/org/hse/aup/social/)) Служба психологической помощи ([http://www.hse.ru/cpc/studenti](http://www.hse.ru/cpc/studenti/)) Общежития ([http://www.hse.ru/dormitory/](http://www.hse.ru/dormitory/)) Блок 3. Информационная среда LMS ([http://lms.hse.ru/](http://lms.hse.ru/)) Антиплагиат ([http://www.hse.ru/org/hse/antiplagiat_info/](http://www.hse.ru/org/hse/antiplagiat_info/)) Справочник учебного процесса ([http://www.hse.ru/studyspravka/](http://www.hse.ru/studyspravka/)) Библиотека ([http://library.hse.ru/](http://library.hse.ru/)) Каждая из колонок редактируется в соответствующем разделе Блоков: Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты: **Рейтинги*\xa0** (автоматическая страница с техническим именем **ratings** ) **Курсы по выбору и проектная работа** ([http://electives.hse.ru/](http://electives.hse.ru/)) **Рекомендованные онлайн-курсы** (MOOCs)\xa0(статстраница с техническим именем **moocs** ) **Студенческая мобильность** (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем **mobility** ) **Практическая подготовка** \xa0(статстраница с техническим именем **internships** ) **Каталог ВКР**** \xa0(автоматическая страница с техническим именем\xa0 **diplomas** ) **Итоговая аттестация** (если актуально) (статстраница с техническим именем **assessment** ) *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ **ratings** . Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к [Игнатовой Наталии Генадиевне](https://www.hse.ru/org/persons/164477791). **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ **diplomas** . Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам [Создание статической страницы и что делать, если пункт меню помечен «замочком»](https://portal.hse.ru/progs/#newmenu) **Доска объявленийДоска объявлений** доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0[здесь](http://portal.hse.ru/newdesignbb/). '], [' **Раздел Выпускникам (если есть информация для выпускников)** '], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты: Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам. ']]</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на [portal@hse.ru](mailto:portal@hse.ru). Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], [' **Учебные курсы** '], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к [Игнатовой Наталии Генадиевне](https://www.hse.ru/org/persons/164477791). '], [' **Преподаватели** '], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к [Игнатовой Наталии Генадиевне](https://www.hse.ru/org/persons/164477791). '], [' **Число студентов и вакантные бюджетные места** '], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к [Аббасовой Елене Сергеевне](https://www.hse.ru/org/persons/101532960). Информация обновляется не менее четырёх раз в год. '], [' **Документы** '], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя: Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы. __ **Инструкция по заполнению раздела\xa0«Документы»** __ Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно: 1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться: Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы) 5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы: Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов) ** __Инструкция по заполнению Паспорта образовательной программы__ ** Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа) В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1 В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е. В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом. После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: [Знак Светлана Александровна](https://www.hse.ru/org/persons/121172347) и [Залесская Светлана Николаевна](https://www.hse.ru/org/persons/220868404). '], [' **Расписание** '], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], [' **Академический совет** '], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках: Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей. Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на [portal@hse.ru](mailto:portal@hse.ru) c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе [«Верхнее меню (разделы программы)»](https://portal.hse.ru/progs/#up).'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию [новой статической страницы](https://portal.hse.ru/pages). При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают [простые](http://portal.hse.ru/format/) и [составные](https://portal.hse.ru/sostav). Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0[portal@hse.ru](mailto:portal@hse.ru).'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками [отдела визуальных коммуникаций](https://pr.hse.ru/356176264/). Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от [отдела визуальных коммуникаций](https://pr.hse.ru/356176264/). Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем [отдела визуальных коммуникаций](https://pr.hse.ru/356176264/) [Кутьковым Ю.Ю.](https://www.hse.ru/org/persons/522874183)']]</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы **/study_office** \xa0(например,\xa0http://www.hse.ru/ba/cultural **/study_office** /). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], [' **Шапка турбо-версии:** '], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], [' **Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.** '], [''], [' **Главная страница турбо-версии** :'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0[mpustovoyt@hse.ru](http://mpustovoyt@hse.ru). К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['[Подробная инструкция и guidelines](https://portal.hse.ru/instr#programme)\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[['Чтобы **включить доску объявлений** на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
+          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы **добавить новое объявление** , в\xa0меню личного кабинета ([hse.ru/user](https://www.hse.ru/user/)) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
+          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[[' **Что не следует делать:** ']]</t>
+          <t>[['Что не следует делать:']]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: [http://portal.hse.ru/progs](http://portal.hse.ru/progs)']]</t>
+          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs']]</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2264,59 +2264,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на [сайте РИНЦ](https://elibrary.ru/projects/science_index/author_tutorial.asp).']]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[[' **ВНИМАНИЕ!** \xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>[[' **Инструкции** \n[Регистрация в Science Index](#one)[Внесение данных в регистрационную анкету и улучшение автоматической привязки публикаций](#two)[Работа со списком публикаций](#three)[Работа со ссылками на публикации](#four)[Порядок обращения к ответственным от подразделений](#five)[Анализ публикационной активности автора](#six)\n']]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: [https://[elibrary.ru](https://elibrary.ru/defaultx.asp)/author_info.asp?isnew=1&amp;inreestr=on](https://[elibrary.ru](https://elibrary.ru/defaultx.asp)/author_info.asp?isnew=1&amp;inreestr=on), либо выберите кнопку «Регистрация» в панели «Вход» на сайте [elibrary.ru](https://elibrary.ru/defaultx.asp).'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: [https://elibrary.ru/author_info.asp?isold=1](https://elibrary.ru/author_info.asp?isold=1), или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к [ответственному от вашего подразделения](#auth), чтобы он добавил нужную публикацию.']]</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к [ответственному от вашего подразделения](#auth), чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по [классификатору ГРНТИ](http://grnti.ru/); 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по [классификатору ГРНТИ](http://grnti.ru/); 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать [Ощепкову Ивану Владимировичу](//www.hse.ru/org/persons/104486098):']]</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
-        </is>
-      </c>
+          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2337,11 +2297,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2447,29 +2415,21 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики [Google Analytics](https://www.google.com/analytics/) и [Яндекс.Метрика](https://metrika.yandex.ru/). C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', '[Запрос на предоставление доступа](https://docs.google.com/document/d/1VfSmJE8_XagqMr7x-hE85tw2jZw_jOIA/edit)']]</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0[https://yandex.ru/support/metrika/](https://yandex.ru/support/metrika/)'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0[https://support.google.com/analytics/](https://support.google.com/analytics/#topic=3544907)']]</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
+          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2496,27 +2456,59 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0[underground@hse.ru](mailto:underground@hse.ru). Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств; __Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.__ \nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], [' **Важно!** •\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2537,21 +2529,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу [Операционного управления дополнительного профессионального образования](https://www.hse.ru/org/hse/aup/addedu/) на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
+          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[[' Видеозаписи семинаров: [26\xa0апреля 2021](https://www.youtube.com/watch?v=OkZBkT7UXjs), [12 мая 2021](https://www.youtube.com/watch?v=SeJKpuBk690) ']]</t>
+          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[[' **Содержательные вопросы и работа с каталогом Операционного управления ДПО** \xa0— [Жгун Оксана Леонидовна](https://www.hse.ru/org/persons/64862787), [Фатьянова Екатерина Алексеевна](https://www.hse.ru/org/persons/138215424)', ' [ **Получение доступа и вопросы по работе с\xa0редакторским интерфейсом** ](https://pmo.hse.ru/servicedesk/customer/portal/120) • [Получить доступ к\xa0редактированию](https://pmo.hse.ru/servicedesk/customer/portal/120/create/1085) • [Получить консультацию](https://pmo.hse.ru/servicedesk/customer/portal/120/create/1089) [ **Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка** ](https://pmo.hse.ru/servicedesk/customer/portal/125) • [Получить доступ к\xa0веб-аналитике](https://pmo.hse.ru/servicedesk/customer/portal/125/create/1119) • [Получить доступ к\xa0Roistat](https://pmo.hse.ru/servicedesk/customer/portal/125/create/1118) • [Получить доступ к\xa0Unisender](https://pmo.hse.ru/servicedesk/customer/portal/125/create/1128) • [[Запрос на\xa0поддержку](https://pmo.hse.ru/servicedesk/customer/portal/45/create/353)](https://pmo.hse.ru/servicedesk/customer/portal/125/create/1129) [ **CRM. Техническая поддержка** ](https://pmo.hse.ru/servicedesk/customer/portal/45) • [Получить доступ в CRM](https://pmo.hse.ru/servicedesk/customer/portal/45/create/354) • [Запрос на\xa0доработку](https://pmo.hse.ru/servicedesk/customer/portal/45/create/356) • [Сообщить об\xa0ошибке](https://pmo.hse.ru/servicedesk/customer/portal/45/create/355) • [[Запрос на\xa0поддержку](https://pmo.hse.ru/servicedesk/customer/portal/45/create/353)](https://pmo.hse.ru/servicedesk/customer/portal/125/create/1129) ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано [здесь](https://portal.hse.ru/photo).', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки [ **Как начать** ](https://portal.hse.ru/dpo_new/#start) [ **Как клонировать карточку** ](https://portal.hse.ru/dpo_new/#cloning) [ **Как дать ссылку на существующий лендинг программы** ](https://portal.hse.ru/dpo_new/#landing) [ **Как посмотреть, что получилось** ](https://portal.hse.ru/dpo_new/#demo) \xa0 [ **Собираем шапку сайта программы** ](https://portal.hse.ru/dpo_new/#header) [Изображение в\xa0шапке программы](https://portal.hse.ru/dpo_new/#img) [Кнопки «Подать заявку» и\xa0«Задать вопрос»](https://portal.hse.ru/dpo_new/#poll) \xa0 [ **Собираем страницу программы** ](https://portal.hse.ru/dpo_new/#page) [Виджет «Якорь»](https://portal.hse.ru/dpo_new/#anchor) [Виджет «Важные объявления»](https://portal.hse.ru/dpo_new/#important) [Виджет «О\xa0программе»](https://portal.hse.ru/dpo_new/#about) [Виджет «Нумерованный блок»](https://portal.hse.ru/dpo_new/#numbered) [Виджет «Результаты»](https://portal.hse.ru/dpo_new/#result) [Виджет «Для кого»](https://portal.hse.ru/dpo_new/#for) [Виджет «Список изображений»](https://portal.hse.ru/dpo_new/#img2) [Виджет «Документ об\xa0окончании»](https://portal.hse.ru/dpo_new/#graduation) [Виджет «Текст с\xa0заголовком»](https://portal.hse.ru/dpo_new/#text1) [Виджет «Программа обучения»](https://portal.hse.ru/dpo_new/#prog) [Виджет «FAQ»](https://portal.hse.ru/dpo_new/#faq) [Виджет «Сообщество»](https://portal.hse.ru/dpo_new/#community) [Виджет «Отзывы выпускников»](https://portal.hse.ru/dpo_new/#review) [Виджет «Контакты»](https://portal.hse.ru/dpo_new/#contacts) [Виджет «Стоимость и\xa0условия»](https://portal.hse.ru/dpo_new/#price) [Виджет «Преподаватели»](https://portal.hse.ru/dpo_new/#tutors) [Виджет «О\xa0школе»](https://portal.hse.ru/dpo_new/#about2) [Виджет «Формат обучения»](https://portal.hse.ru/dpo_new/#format) [Виджет «Загрузка\xa0файлов»](https://portal.hse.ru/dpo_new/#file) [Виджет «Показ\xa0учебного\xa0плана»](https://portal.hse.ru/dpo_new/#plan) [Связанные программы](https://portal.hse.ru/dpo_new/#connect) [Сведения об образовательной организации](https://portal.hse.ru/dpo_new/#sveden) \xa0 [ **Меню** ](https://portal.hse.ru/dpo_new/#menu) [ **SEO** ](https://portal.hse.ru/dpo_new/#seo) '], [' **Добавление** программ (создание новой карточки) осуществляется **через каталог Операционного управления ДПО** . Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к [Фатьяновой Екатерине Алексеевне](https://www.hse.ru/org/persons/138215424).', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс [https://www.hse.ru/adm/](https://www.hse.ru/adm/) и\xa0перейдите в\xa0раздел Образование → [Дополнительное образование new](https://www.hse.ru/adm/edu/dpo/index.html)', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', ' ', ' Для **поиска** уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для **редактирования** программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно **удалить** , напишите на [portal@hse.ru](mailto:portal@hse.ru).\xa0 Для временного **скрытия** с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес [portal@hse.ru](mailto:portal@hse.ru) (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на [portal@hse.ru](mailto:portal@hse.ru), указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе [«Данные»](https://portal.hse.ru/dpo_new/#data) и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. **Данные, импортируемые из базы ДПО.** Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к [Фатьяновой Екатерине Алексеевне](https://www.hse.ru/org/persons/138215424).', 'Как выглядит административный интерфейс', '', '2. **Дополнительные данные для карточки на портале.** Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. **Данные для Сведений о ВШЭ.** На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом [https://tinypng.com/](https://tinypng.com/) .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка **«Показ кнопки заявки»** или **«Показ кнопки формы»** в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: [https://portal.hse.ru/poll](https://portal.hse.ru/poll) (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке **«Конструктор»** . В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: [https://www.hse.ru/edu/dpo/452691928#anchor](https://www.hse.ru/edu/dpo/452691928#anchor)).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка **«Текст»** является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке **«Видео»** можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/ **embed** /VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0 **embed** и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее [включили](#poll) их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. **Простой** — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. **С\xa0лейблом скидки** \xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. ** С\xa0подложкой** [—](None) позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\n **Виджет «Из ВШЭ» ** позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\n **Виджет «Не из ВШЭ»** позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела [«Данные»](https://portal.hse.ru/dpo_new/#data)\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «[Сведения об образовательной организации](https://www.hse.ru/sveden)» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «[Сведения об образовательной организации](https://www.hse.ru/sveden)»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места [«якоря»](#anchor). В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на [portal@hse.ru](http://portal@hse.ru) со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>

--- a/data_files/level_4.xlsx
+++ b/data_files/level_4.xlsx
@@ -606,94 +606,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
+          <t>[['Сотрудники НИУ ВШЭ (за\xa0исключением сотрудников категории административно-хозяйственного персонала, не\xa0занимающих руководящие должности) обязаны иметь заполненную в\xa0соответствии со\xa0Стандартом персональную страницу.'], ['Персональная страница появляется автоматически после внесения приказа о\xa0трудоустройстве сотрудника в\xa0базу Управления персонала (ЗиК, ИС-ПРО) и\xa0показывается в\xa0общем списке преподавателей и\xa0сотрудников, а\xa0также в\xa0списках сотрудников на\xa0страницах подразделений.'], ['Автоматически появляются только страницы штатных сотрудников и\xa0преподавателей, имеющих договор ГПХ ППС (такие сотрудники показываются на\xa0портале с\xa0должностью «Приглашенный преподаватель»).'], ['Если необходимо, чтобы персональная страница появилась у сотрудника, работающего по обычному договору ГПХ, то при оформлении договора в СЭД\xa0необходимо поставить соответствующую галочку. Для уже оформленных договоров галочку нужно поставить в кадровой системе ЗиК.\xa0'], ['Посмотреть, где находится галочка в интерфейсе СЭД'], [''], ['Сотрудники несут ответственность за\xa0актуальность информации, размещенной на\xa0их\xa0персональных страницах.']]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
+          <t>[['На\xa0странице должны быть сведения, определенные Стандартом. Также сотрудник может разместить там любую информацию, не\xa0нарушающую законов\xa0РФ и\xa0не\xa0противоречащую декларации ценностей университета.'], ['Информацию на\xa0персональную страницу сотрудник вносит самостоятельно (за\xa0исключением сведений, которые отображаются на\xa0странице из\xa0баз данных университета). При возникновении вопросов сотрудник обращается к\xa0ответственному за\xa0персональные страницы или к\xa0руководителю подразделения (в\xa0случае отсутствия ответственного в\xa0подразделении).'], ['\n\xa0\n\nДоступ\xa0к редактированию персональной страницы осуществляется по логину и паролю от ЕЛК (при наличии доступа к корпоративной почты).\nКонсультации по\xa0вопросам наполнения персональных страниц осуществляют ответственные от\xa0подразделений.\n\n']]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
+          <t>[['Часть информации попадает на\xa0персональные страницы из\xa0баз данных университета, поэтому важно, чтобы подразделения, отвечающие за\xa0внесение информации в\xa0базы, вовремя получали необходимые данные. Сведения, поступающие из\xa0баз данных университета, сотрудник не\xa0может исправить самостоятельно.'], ['Пример: Если сотрудник не\xa0предоставил в\xa0Управление персонала сведения о\xa0награде или ученой степени, то\xa0эти сведения не\xa0появятся на\xa0его персональной странице. '], ['Сведения, поступающие из\xa0систем ЗиК (Москва), ИС-ПРО (кампусы), АСАВ, РУЗ, LMS, базы данных портала могут изменить только сотрудники подразделений, отвечающие за\xa0информацию из\xa0этих систем:'], ['\n\n\nФамилия Имя Отчество (ЗиК\xa0/ ИС-ПРО)\nПол (ЗиК\xa0/ ИС-ПРО)\nПодразделение (ЗиК\xa0/ ИС-ПРО)\nДолжность / Возложение обязанностей (ЗиК\xa0/ ИС-ПРО)\nНачало работы в\xa0НИУ ВШЭ (ЗиК\xa0/ ИС-ПРО)\nНаучно-педагогический стаж (ЗиК\xa0/ ИС-ПРО)\nОбразование (ЗиК\xa0/ ИС-ПРО)\nУченая степень (ЗиК\xa0/ ИС-ПРО)\n\n\n\n\nУченое звание (ЗиК\xa0/ ИС-ПРО)\nДостижения и\xa0поощрения (ЗиК\xa0/ ИС-ПРО)\nАкадемические надбавки (база данных портала)\nУчебные курсы (АСАВ)\nРуководство аспирантами (АСАВ)\nРуководство ВКР (LMS)\nРасписание (РУЗ)\n\n\n\n\nУчастие в\xa0административном кадровом резерве (база данных портала)\nУчастие в\xa0академическом кадровом резерве (база данных портала)\nПатенты и\xa0свидетельства о\xa0правах интеллектуальной собственности (база данных портала)\nПубликации издательского дома ВШЭ (база данных портала)\n\n\n'], ['Сведения может править только Управление персонала. Изменения будут видны на\xa0портале в\xa0течение суток после их\xa0внесения в\xa0ИС-ПРО', '**Сведения из\xa0ИС-ПРО:**\n\nФамилия Имя ОтчествоПол Подразделение и\xa0должность Начало работы в\xa0НИУ ВШЭ Научно-педагогический стаж\nОбразование Ученая степень Ученое званиеДостижения и\xa0поощрения*\n\n', '**Сотрудники, отвечающие за\xa0внесения правок в\xa0Москве:**\n\n\nЩегольская Татьяна\xa0(+\xa0Наталья Малыхина) (штатные сотрудники с\xa0российским гражданством).\xa0Запросить консультацию\n\nЯлугина Анастасия\xa0(+\xa0Наталия Нижаловская) (сотрудники, работающие\xa0по\xa0договорам ГПХ ППС)\xa0Запросить консультацию\nСтарокадомская Вероника\xa0(сотрудники с\xa0иностранным гражданством)\xa0Запросить консультацию\nНаталья Малыхина\xa0(информация о\xa0наградах вне зависимости от\xa0гражданства)\xa0Запросить консультацию\n\nВ кампусах правки вносят кадровые службы кампусов.\n', '**Что сотрудник может дополнить самостоятельно:**\n\nОбразование: можно уточнить\xa01) уровень образования (например, указать BSc или\xa0BA для бакалавриата, полученного зарубежом), 2) факультет, 3) специальность на\xa0английском языке (по\xa0умолчанию перевода специальности на\xa0английский язык нет).\nУченая степень: можно уточнить тему диссертации и\xa0место защиты.\n\n'], ['Изменения будут видны на\xa0портале после синхронизации баз данных. Синхронизация происходит приблизительно раз в\xa0месяц либо по\xa0запросу от\xa0подразделения, отвечающего за\xa0информацию.', '**Учебные курсы**\nСведения формируются на\xa0основе информации из\xa0Рабочих учебных планов и\xa0модуля нагрузки преподавателей. Правки вносят ответственные от\xa0подразделений.Курирует систему заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна\nСинхронизация с\xa0порталом:\n\nучебных курсов\xa0— по\xa0запросу, приблизительно раз месяц\nпрограммы дисциплин\xa0— каждый час\nнагрузка преподавателей\xa0— ежедневно\n\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nответственный за\xa0планирование нагрузки преподавателей\nответственный за\xa0прикрепление программы дисциплин в\xa0АСАВ\n\n', '**Научное руководство аспирантами**\nСведения может править Управление аспирантуры и\xa0докторантуры\nСинхронизация с\xa0порталом\xa0— по\xa0запросу или раз в\xa0два месяца.\n'], ['Сведения вносят сотрудники учебных офисов, курирует РУЗ заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна', 'К\xa0кому обращаться для внесения правок:', '\nответственный от\xa0подразделения\nсотрудники учебных офисов\n'], ['Сведения вносят сотрудники учебных офисов, курирует LMS заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна)', '**ВКР (выпускная квалификационная работа)**\nСинхронизация\xa0— ежедневно.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nсотрудники учебных офисов\n\n'], ['Изменения видны сразу после внесения.', '**Участие в\xa0административном кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0руководителя программы Юлии Гринкевич.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Юлия Гринкевич\n\n', '**Участие в\xa0академическом кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Управления академического развития\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Управление академического развития\n\n', '**Патенты и\xa0свидетельства о\xa0правах интеллектуальной собственности**\nСведения вносит Дирекция по\xa0правовым вопросам\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nДирекция по\xa0правовым вопросам\n\n', '**Академические надбавки**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Научного фонда (Ольга Чурикова)\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nначальник управления академических исследований Ольга Чурикова\n\n', '**Публикации**\nАвтоматически на\xa0портале появляются только публикации Издательского дома ВШЭ. Остальные публикации вносит представитель подразделения либо сотрудник самостоятельно. Вносить изменения в\xa0публикацию могут: авторы публикации, сотрудник, создавший публикацию, Управление развития и\xa0поддержки портала по\xa0заявке на\xa0адрес publications@hse.ru. Подробнее см. Справочник по\xa0публикациям.\n']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[['Доступ к\xa0редактированию страниц'], ['Как это работает'], ['Добавление новых вкладок'], ['Работа с\xa0вкладками'], ['Форматирование'], ['Научные интересы'], ['Фотография'], ['Scopus, SPIN РИНЦ, ORCID...'], ['Английская версия персональной страницы'], ['Персональные страницы может редактировать:', '\nСам сотрудник.\nПредставитель персоны (директора, декана, проректора).\nОтветственный за\xa0персональные страницы (редактирование только персональных страниц сотрудников определенного подразделения).\n', 'Для получения прав редактирования необходимо отправить запрос с\xa0вашей корпоративной почты на\xa0адрес portal@hse.ru. Обязательно укажите, какие права необходимо предоставить:', '\nпредставитель персоны (указываете, чью страницу будете редактировать);\nответственный за\xa0персональные страницы (указываете подразделение, страницы сотрудников которого будете редактировать).\n'], ['Непосредственно в\xa0личном кабинете есть инструкция по\xa0редактированию страниц: большая синяя кнопка «Как это работает» (в\xa0английской версии\xa0— How it\xa0works).', ''], ['Если вы\xa0собираетесь добавить информацию, которая не\xa0подходит для предложенных вкладок, вы\xa0можете создать собственную вкладку. Для этого нажмите «Добавить вкладку», введите заголовок и\xa0нажмите «ОК».', '', 'После этого в\xa0созданной вкладке можно добавить необходимую информацию. Нажимаете «Добавить текст» и\xa0заполняете необходимые поля.'], ['Те\xa0разделы, рядом с\xa0которыми стоит «замок», формируются автоматически из\xa0различных баз Вышки. Вы\xa0не\xa0можете вносить в\xa0них изменения, удалять их\xa0или перемещать. Разделы, не\xa0отмеченные этим символом, можно легко перетаскивать мышкой, меняя их\xa0порядок. Добавить новый раздел можно, нажав на\xa0«Добавить текст». Созданный раздел также можно перетащить в\xa0любую вкладку.', 'Если вы\xa0удалили раздел, который по\xa0умолчанию предусмотрен в\xa0одной из\xa0вкладок, и\xa0информация, представленная в\xa0нем, формируется автоматически, то\xa0вы\xa0легко можете восстановить раздел, нажав символ «+» внизу вкладки. При этом будет показан список разделов, подлежащих восстановлению.', '', 'Если вы\xa0удалили раздел, который вы\xa0создали вручную, восстановить его автоматически будет невозможно. Вам придётся заново вносить всю информацию.', 'Помните! Все изменения сохраняются только после того, как вы\xa0нажали кнопку «Сохранить». Если вы\xa0случайно что-то удалили, добавили что-то не\xa0то, просто закройте страницу без сохранения изменений.', '', '\xa0'], ['Чтобы текст во\xa0всех вкладках был одинаковым, необходимо добавлять информацию по\xa0одному из\xa0следующих алгоритмов:', '1) заполнять все вкладки и\xa0поля непосредственно в\xa0личном кабинете, не\xa0копируя информацию из\xa0текстовых редакторов, браузера и\xa0т.п.;', '2) весь текст, который вы\xa0собираетесь добавить в\xa0текстовое поле, необходимо добавить сначала в\xa0блокнот, скопировать из\xa0блокнота и\xa0вставить непосредственно в\xa0текстовое поле личного кабинета;', '3) при вставке текста использовать кнопку «Вставка из\xa0Word». В\xa0случае, если текст всё равно выглядит не\xa0так, как текст на\xa0автоматических вкладках, использовать кнопку «Убрать форматирование»;', '4) при вставке текста использовать кнопку «Вставить только текст» (в\xa0этом случае всё форматирование пропадёт);', '5) после вставки текста в\xa0текстовое поле выделить весь текст и\xa0нажать кнопку «Убрать форматирование».', '', '\xa0'], ['При добавлении интересов нажимаем «Добавить рус.», после этого пишем ключевое слово и\xa0нажимаем «Найти». Отобразится список с\xa0упоминанием искомого слова. Выбираем нужное слово или словосочетание и\xa0нажимаем кнопку «Выбрать».', '\xa0'], ['Фотография загружается из\xa0базы службы безопасности. Система такова: раз в\xa0неделю Дирекция по\xa0безопасности присылает фото в\xa0Управление персонала, которое заносит их\xa0в\xa0ИС-ПРО. Однако сотрудник может залить и\xa0отредактировать фото самостоятельно в\xa0SmartPoint (ЕЛК)'], ['Инструкции:', '\nSPIN РИНЦ\nORCID\nResearcherID\nGoogle Scholar\n', 'По\xa0всем вопросам, связанным с\xa0данной базой, необходимо обращаться к\xa0ответственному от\xa0подразделения.'], ['Для активации английской версии необходимо в\xa0личном кабинете:', '\nЗаполнить поле ФИО на\xa0английском\nЗаполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В\xa0частности, необходимо заполнить поля Специальность в\xa0разделах Образование и\xa0Ученая степень\nСохранить все изменения\nВыбрать пункт «Статус английской версии» (британский флажок)\n', 'Подробнее см.: Работа с\xa0английскими версиями персональных страниц']]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -707,24 +651,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -825,13 +757,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -858,25 +806,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['Сотрудники НИУ ВШЭ (за\xa0исключением сотрудников категории административно-хозяйственного персонала, не\xa0занимающих руководящие должности) обязаны иметь заполненную в\xa0соответствии со\xa0Стандартом персональную страницу.'], ['Персональная страница появляется автоматически после внесения приказа о\xa0трудоустройстве сотрудника в\xa0базу Управления персонала (ЗиК, ИС-ПРО) и\xa0показывается в\xa0общем списке преподавателей и\xa0сотрудников, а\xa0также в\xa0списках сотрудников на\xa0страницах подразделений.'], ['Автоматически появляются только страницы штатных сотрудников и\xa0преподавателей, имеющих договор ГПХ ППС (такие сотрудники показываются на\xa0портале с\xa0должностью «Приглашенный преподаватель»).'], ['Если необходимо, чтобы персональная страница появилась у сотрудника, работающего по обычному договору ГПХ, то при оформлении договора в СЭД\xa0необходимо поставить соответствующую галочку. Для уже оформленных договоров галочку нужно поставить в кадровой системе ЗиК.\xa0'], ['Посмотреть, где находится галочка в интерфейсе СЭД'], [''], ['Сотрудники несут ответственность за\xa0актуальность информации, размещенной на\xa0их\xa0персональных страницах.']]</t>
+          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['На\xa0странице должны быть сведения, определенные Стандартом. Также сотрудник может разместить там любую информацию, не\xa0нарушающую законов\xa0РФ и\xa0не\xa0противоречащую декларации ценностей университета.'], ['Информацию на\xa0персональную страницу сотрудник вносит самостоятельно (за\xa0исключением сведений, которые отображаются на\xa0странице из\xa0баз данных университета). При возникновении вопросов сотрудник обращается к\xa0ответственному за\xa0персональные страницы или к\xa0руководителю подразделения (в\xa0случае отсутствия ответственного в\xa0подразделении).'], ['\n\xa0\n\nДоступ\xa0к редактированию персональной страницы осуществляется по логину и паролю от ЕЛК (при наличии доступа к корпоративной почты).\nКонсультации по\xa0вопросам наполнения персональных страниц осуществляют ответственные от\xa0подразделений.\n\n']]</t>
+          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Часть информации попадает на\xa0персональные страницы из\xa0баз данных университета, поэтому важно, чтобы подразделения, отвечающие за\xa0внесение информации в\xa0базы, вовремя получали необходимые данные. Сведения, поступающие из\xa0баз данных университета, сотрудник не\xa0может исправить самостоятельно.'], ['Пример: Если сотрудник не\xa0предоставил в\xa0Управление персонала сведения о\xa0награде или ученой степени, то\xa0эти сведения не\xa0появятся на\xa0его персональной странице. '], ['Сведения, поступающие из\xa0систем ЗиК (Москва), ИС-ПРО (кампусы), АСАВ, РУЗ, LMS, базы данных портала могут изменить только сотрудники подразделений, отвечающие за\xa0информацию из\xa0этих систем:'], ['\n\n\nФамилия Имя Отчество (ЗиК\xa0/ ИС-ПРО)\nПол (ЗиК\xa0/ ИС-ПРО)\nПодразделение (ЗиК\xa0/ ИС-ПРО)\nДолжность / Возложение обязанностей (ЗиК\xa0/ ИС-ПРО)\nНачало работы в\xa0НИУ ВШЭ (ЗиК\xa0/ ИС-ПРО)\nНаучно-педагогический стаж (ЗиК\xa0/ ИС-ПРО)\nОбразование (ЗиК\xa0/ ИС-ПРО)\nУченая степень (ЗиК\xa0/ ИС-ПРО)\n\n\n\n\nУченое звание (ЗиК\xa0/ ИС-ПРО)\nДостижения и\xa0поощрения (ЗиК\xa0/ ИС-ПРО)\nАкадемические надбавки (база данных портала)\nУчебные курсы (АСАВ)\nРуководство аспирантами (АСАВ)\nРуководство ВКР (LMS)\nРасписание (РУЗ)\n\n\n\n\nУчастие в\xa0административном кадровом резерве (база данных портала)\nУчастие в\xa0академическом кадровом резерве (база данных портала)\nПатенты и\xa0свидетельства о\xa0правах интеллектуальной собственности (база данных портала)\nПубликации издательского дома ВШЭ (база данных портала)\n\n\n'], ['Сведения может править только Управление персонала. Изменения будут видны на\xa0портале в\xa0течение суток после их\xa0внесения в\xa0ИС-ПРО', '**Сведения из\xa0ИС-ПРО:**\n\nФамилия Имя ОтчествоПол Подразделение и\xa0должность Начало работы в\xa0НИУ ВШЭ Научно-педагогический стаж\nОбразование Ученая степень Ученое званиеДостижения и\xa0поощрения*\n\n', '**Сотрудники, отвечающие за\xa0внесения правок в\xa0Москве:**\n\n\nЩегольская Татьяна\xa0(+\xa0Наталья Малыхина) (штатные сотрудники с\xa0российским гражданством).\xa0Запросить консультацию\n\nЯлугина Анастасия\xa0(+\xa0Наталия Нижаловская) (сотрудники, работающие\xa0по\xa0договорам ГПХ ППС)\xa0Запросить консультацию\nСтарокадомская Вероника\xa0(сотрудники с\xa0иностранным гражданством)\xa0Запросить консультацию\nНаталья Малыхина\xa0(информация о\xa0наградах вне зависимости от\xa0гражданства)\xa0Запросить консультацию\n\nВ кампусах правки вносят кадровые службы кампусов.\n', '**Что сотрудник может дополнить самостоятельно:**\n\nОбразование: можно уточнить\xa01) уровень образования (например, указать BSc или\xa0BA для бакалавриата, полученного зарубежом), 2) факультет, 3) специальность на\xa0английском языке (по\xa0умолчанию перевода специальности на\xa0английский язык нет).\nУченая степень: можно уточнить тему диссертации и\xa0место защиты.\n\n'], ['Изменения будут видны на\xa0портале после синхронизации баз данных. Синхронизация происходит приблизительно раз в\xa0месяц либо по\xa0запросу от\xa0подразделения, отвечающего за\xa0информацию.', '**Учебные курсы**\nСведения формируются на\xa0основе информации из\xa0Рабочих учебных планов и\xa0модуля нагрузки преподавателей. Правки вносят ответственные от\xa0подразделений.Курирует систему заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна\nСинхронизация с\xa0порталом:\n\nучебных курсов\xa0— по\xa0запросу, приблизительно раз месяц\nпрограммы дисциплин\xa0— каждый час\nнагрузка преподавателей\xa0— ежедневно\n\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nответственный за\xa0планирование нагрузки преподавателей\nответственный за\xa0прикрепление программы дисциплин в\xa0АСАВ\n\n', '**Научное руководство аспирантами**\nСведения может править Управление аспирантуры и\xa0докторантуры\nСинхронизация с\xa0порталом\xa0— по\xa0запросу или раз в\xa0два месяца.\n'], ['Сведения вносят сотрудники учебных офисов, курирует РУЗ заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна', 'К\xa0кому обращаться для внесения правок:', '\nответственный от\xa0подразделения\nсотрудники учебных офисов\n'], ['Сведения вносят сотрудники учебных офисов, курирует LMS заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна)', '**ВКР (выпускная квалификационная работа)**\nСинхронизация\xa0— ежедневно.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nсотрудники учебных офисов\n\n'], ['Изменения видны сразу после внесения.', '**Участие в\xa0административном кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0руководителя программы Юлии Гринкевич.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Юлия Гринкевич\n\n', '**Участие в\xa0академическом кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Управления академического развития\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Управление академического развития\n\n', '**Патенты и\xa0свидетельства о\xa0правах интеллектуальной собственности**\nСведения вносит Дирекция по\xa0правовым вопросам\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nДирекция по\xa0правовым вопросам\n\n', '**Академические надбавки**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Научного фонда (Ольга Чурикова)\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nначальник управления академических исследований Ольга Чурикова\n\n', '**Публикации**\nАвтоматически на\xa0портале появляются только публикации Издательского дома ВШЭ. Остальные публикации вносит представитель подразделения либо сотрудник самостоятельно. Вносить изменения в\xa0публикацию могут: авторы публикации, сотрудник, создавший публикацию, Управление развития и\xa0поддержки портала по\xa0заявке на\xa0адрес publications@hse.ru. Подробнее см. Справочник по\xa0публикациям.\n']]</t>
+          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Доступ к\xa0редактированию страниц'], ['Как это работает'], ['Добавление новых вкладок'], ['Работа с\xa0вкладками'], ['Форматирование'], ['Научные интересы'], ['Фотография'], ['Scopus, SPIN РИНЦ, ORCID...'], ['Английская версия персональной страницы'], ['Персональные страницы может редактировать:', '\nСам сотрудник.\nПредставитель персоны (директора, декана, проректора).\nОтветственный за\xa0персональные страницы (редактирование только персональных страниц сотрудников определенного подразделения).\n', 'Для получения прав редактирования необходимо отправить запрос с\xa0вашей корпоративной почты на\xa0адрес portal@hse.ru. Обязательно укажите, какие права необходимо предоставить:', '\nпредставитель персоны (указываете, чью страницу будете редактировать);\nответственный за\xa0персональные страницы (указываете подразделение, страницы сотрудников которого будете редактировать).\n'], ['Непосредственно в\xa0личном кабинете есть инструкция по\xa0редактированию страниц: большая синяя кнопка «Как это работает» (в\xa0английской версии\xa0— How it\xa0works).', ''], ['Если вы\xa0собираетесь добавить информацию, которая не\xa0подходит для предложенных вкладок, вы\xa0можете создать собственную вкладку. Для этого нажмите «Добавить вкладку», введите заголовок и\xa0нажмите «ОК».', '', 'После этого в\xa0созданной вкладке можно добавить необходимую информацию. Нажимаете «Добавить текст» и\xa0заполняете необходимые поля.'], ['Те\xa0разделы, рядом с\xa0которыми стоит «замок», формируются автоматически из\xa0различных баз Вышки. Вы\xa0не\xa0можете вносить в\xa0них изменения, удалять их\xa0или перемещать. Разделы, не\xa0отмеченные этим символом, можно легко перетаскивать мышкой, меняя их\xa0порядок. Добавить новый раздел можно, нажав на\xa0«Добавить текст». Созданный раздел также можно перетащить в\xa0любую вкладку.', 'Если вы\xa0удалили раздел, который по\xa0умолчанию предусмотрен в\xa0одной из\xa0вкладок, и\xa0информация, представленная в\xa0нем, формируется автоматически, то\xa0вы\xa0легко можете восстановить раздел, нажав символ «+» внизу вкладки. При этом будет показан список разделов, подлежащих восстановлению.', '', 'Если вы\xa0удалили раздел, который вы\xa0создали вручную, восстановить его автоматически будет невозможно. Вам придётся заново вносить всю информацию.', 'Помните! Все изменения сохраняются только после того, как вы\xa0нажали кнопку «Сохранить». Если вы\xa0случайно что-то удалили, добавили что-то не\xa0то, просто закройте страницу без сохранения изменений.', '', '\xa0'], ['Чтобы текст во\xa0всех вкладках был одинаковым, необходимо добавлять информацию по\xa0одному из\xa0следующих алгоритмов:', '1) заполнять все вкладки и\xa0поля непосредственно в\xa0личном кабинете, не\xa0копируя информацию из\xa0текстовых редакторов, браузера и\xa0т.п.;', '2) весь текст, который вы\xa0собираетесь добавить в\xa0текстовое поле, необходимо добавить сначала в\xa0блокнот, скопировать из\xa0блокнота и\xa0вставить непосредственно в\xa0текстовое поле личного кабинета;', '3) при вставке текста использовать кнопку «Вставка из\xa0Word». В\xa0случае, если текст всё равно выглядит не\xa0так, как текст на\xa0автоматических вкладках, использовать кнопку «Убрать форматирование»;', '4) при вставке текста использовать кнопку «Вставить только текст» (в\xa0этом случае всё форматирование пропадёт);', '5) после вставки текста в\xa0текстовое поле выделить весь текст и\xa0нажать кнопку «Убрать форматирование».', '', '\xa0'], ['При добавлении интересов нажимаем «Добавить рус.», после этого пишем ключевое слово и\xa0нажимаем «Найти». Отобразится список с\xa0упоминанием искомого слова. Выбираем нужное слово или словосочетание и\xa0нажимаем кнопку «Выбрать».', '\xa0'], ['Фотография загружается из\xa0базы службы безопасности. Система такова: раз в\xa0неделю Дирекция по\xa0безопасности присылает фото в\xa0Управление персонала, которое заносит их\xa0в\xa0ИС-ПРО. Однако сотрудник может залить и\xa0отредактировать фото самостоятельно в\xa0SmartPoint (ЕЛК)'], ['Инструкции:', '\nSPIN РИНЦ\nORCID\nResearcherID\nGoogle Scholar\n', 'По\xa0всем вопросам, связанным с\xa0данной базой, необходимо обращаться к\xa0ответственному от\xa0подразделения.'], ['Для активации английской версии необходимо в\xa0личном кабинете:', '\nЗаполнить поле ФИО на\xa0английском\nЗаполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В\xa0частности, необходимо заполнить поля Специальность в\xa0разделах Образование и\xa0Ученая степень\nСохранить все изменения\nВыбрать пункт «Статус английской версии» (британский флажок)\n', 'Подробнее см.: Работа с\xa0английскими версиями персональных страниц']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -903,29 +855,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
+          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
+          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
-        </is>
-      </c>
+          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -952,29 +896,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1001,32 +929,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1050,64 +990,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
+          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1127,24 +1039,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
+          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
-        </is>
-      </c>
+          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1172,29 +1076,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
-        </is>
-      </c>
+          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1221,47 +1121,79 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
+          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+          <t>[['Создайте страницу, кликнув по иконке ']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1278,36 +1210,124 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
+          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1315,7 +1335,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1325,114 +1345,74 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
-        </is>
-      </c>
+          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1440,79 +1420,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
-        </is>
-      </c>
+          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1529,74 +1465,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
+          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
+          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1614,29 +1510,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
+          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
+          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1663,44 +1547,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
+          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
-        </is>
-      </c>
+          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1724,32 +1588,64 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
+          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
+          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
+          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1769,17 +1665,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
+          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1806,20 +1714,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
+          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1847,13 +1759,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1880,23 +1808,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
+          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1958,25 +1902,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2003,29 +1951,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
+          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -2052,19 +1992,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
-        </is>
-      </c>
+          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -2093,18 +2029,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
+          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2130,46 +2082,94 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2264,13 +2264,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2297,27 +2313,59 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
+          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
+          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2338,64 +2386,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по экономике**\n']]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская школа по праву**\n']]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>[['**Академическая аспирантура**\n']]</t>
-        </is>
-      </c>
+          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -2415,17 +2419,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2456,60 +2460,64 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
+          <t>[['**Аспирантская школа по экономике**\n']]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
+          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
+          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
+          <t>[['**Аспирантская школа по праву**\n']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
+          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
+          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
+          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
+          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
+          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
+          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
+          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>[['**Академическая аспирантура**\n']]</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -2529,29 +2537,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
+          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>

--- a/data_files/level_4.xlsx
+++ b/data_files/level_4.xlsx
@@ -651,19 +651,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -684,59 +724,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -757,29 +757,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -806,27 +790,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
+          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
+          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
+          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -855,21 +839,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
+          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -896,10 +888,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -929,44 +925,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
+          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
+          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
-        </is>
-      </c>
+          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -990,7 +970,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1000,29 +980,69 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+          <t>[['Создайте страницу, кликнув по иконке ']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1039,36 +1059,124 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
+          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1076,34 +1184,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
+          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
+          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1121,79 +1269,43 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
-        </is>
-      </c>
+          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1210,124 +1322,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
-        </is>
-      </c>
+          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1335,74 +1367,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
+          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1420,24 +1408,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
+          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
-        </is>
-      </c>
+          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1465,24 +1445,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
+          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
+          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1510,16 +1482,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
+          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1547,28 +1527,64 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
+          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -1588,70 +1604,94 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -1665,29 +1705,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
+          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
+          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1714,25 +1746,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1759,27 +1795,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1808,40 +1844,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
+          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1865,17 +1905,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
+          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1902,29 +1954,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
+          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1951,23 +1999,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
+          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1992,17 +2056,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
+          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2029,34 +2105,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
+          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
+          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2082,94 +2146,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
+          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2264,36 +2264,64 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+          <t>[['**Аспирантская школа по экономике**\n']]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
+          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
+          <t>[['**Аспирантская школа по праву**\n']]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[['**Академическая аспирантура**\n']]</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2313,59 +2341,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
+          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
+          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
+          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
+          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
-        </is>
-      </c>
+          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2386,11 +2390,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2419,19 +2431,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
-        </is>
-      </c>
+          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -2460,64 +2464,60 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по экономике**\n']]</t>
+          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
+          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по праву**\n']]</t>
+          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
+          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
+          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
+          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
+          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
+          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
+          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>[['**Академическая аспирантура**\n']]</t>
-        </is>
-      </c>
+          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -2537,17 +2537,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>

--- a/data_files/level_4.xlsx
+++ b/data_files/level_4.xlsx
@@ -651,59 +651,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -724,19 +684,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -757,13 +757,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -790,30 +806,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -839,29 +859,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
+          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
+          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -970,7 +986,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -980,78 +996,114 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
+          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['**ВИДЖЕТЫ:**\n']]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1059,7 +1111,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1069,114 +1121,74 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
-        </is>
-      </c>
+          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1184,7 +1196,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1194,65 +1206,69 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
+          <t>[['Создайте страницу, кликнув по иконке ']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
+          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
+          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
+          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
+          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
+          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1269,34 +1285,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
+          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
+          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1322,24 +1326,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
+          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
-        </is>
-      </c>
+          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1367,20 +1363,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
+          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1408,24 +1408,64 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
+          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1482,25 +1522,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1527,70 +1571,94 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1604,94 +1672,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -1705,29 +1705,69 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
+          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[['В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд\xa0типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.']]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[['На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть).\xa0']]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[['Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует\xa0выбрать нужную доску из списка.']]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[['Что не следует делать:']]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[['\nСоздавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».\nИспользовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание\nПренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.\n']]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[['Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.']]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs']]</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1844,44 +1884,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
+          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
+          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
-        </is>
-      </c>
+          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1905,29 +1929,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
-        </is>
-      </c>
+          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1954,24 +1966,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
+          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
+          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
+          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1999,39 +2007,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
+          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
+          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2105,24 +2105,44 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
+          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -2146,19 +2166,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
+          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2183,69 +2223,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
+          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[['В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд\xa0типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.']]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>[['На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть).\xa0']]</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>[['Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует\xa0выбрать нужную доску из списка.']]</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[['Что не следует делать:']]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>[['\nСоздавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».\nИспользовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание\nПренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.\n']]</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>[['Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.']]</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs']]</t>
-        </is>
-      </c>
+          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2264,64 +2264,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по экономике**\n']]</t>
+          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская школа по праву**\n']]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[['**Академическая аспирантура**\n']]</t>
-        </is>
-      </c>
+          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2341,29 +2305,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
+          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2390,21 +2346,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2431,20 +2395,64 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>[['**Аспирантская школа по экономике**\n']]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская школа по праву**\n']]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[['**Академическая аспирантура**\n']]</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -2537,19 +2545,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
-        </is>
-      </c>
+          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>

--- a/data_files/level_4.xlsx
+++ b/data_files/level_4.xlsx
@@ -606,24 +606,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['Сотрудники НИУ ВШЭ (за\xa0исключением сотрудников категории административно-хозяйственного персонала, не\xa0занимающих руководящие должности) обязаны иметь заполненную в\xa0соответствии со\xa0Стандартом персональную страницу.'], ['Персональная страница появляется автоматически после внесения приказа о\xa0трудоустройстве сотрудника в\xa0базу Управления персонала (ЗиК, ИС-ПРО) и\xa0показывается в\xa0общем списке преподавателей и\xa0сотрудников, а\xa0также в\xa0списках сотрудников на\xa0страницах подразделений.'], ['Автоматически появляются только страницы штатных сотрудников и\xa0преподавателей, имеющих договор ГПХ ППС (такие сотрудники показываются на\xa0портале с\xa0должностью «Приглашенный преподаватель»).'], ['Если необходимо, чтобы персональная страница появилась у сотрудника, работающего по обычному договору ГПХ, то при оформлении договора в СЭД\xa0необходимо поставить соответствующую галочку. Для уже оформленных договоров галочку нужно поставить в кадровой системе ЗиК.\xa0'], ['Посмотреть, где находится галочка в интерфейсе СЭД'], [''], ['Сотрудники несут ответственность за\xa0актуальность информации, размещенной на\xa0их\xa0персональных страницах.']]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[['На\xa0странице должны быть сведения, определенные Стандартом. Также сотрудник может разместить там любую информацию, не\xa0нарушающую законов\xa0РФ и\xa0не\xa0противоречащую декларации ценностей университета.'], ['Информацию на\xa0персональную страницу сотрудник вносит самостоятельно (за\xa0исключением сведений, которые отображаются на\xa0странице из\xa0баз данных университета). При возникновении вопросов сотрудник обращается к\xa0ответственному за\xa0персональные страницы или к\xa0руководителю подразделения (в\xa0случае отсутствия ответственного в\xa0подразделении).'], ['\n\xa0\n\nДоступ\xa0к редактированию персональной страницы осуществляется по логину и паролю от ЕЛК (при наличии доступа к корпоративной почты).\nКонсультации по\xa0вопросам наполнения персональных страниц осуществляют ответственные от\xa0подразделений.\n\n']]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Часть информации попадает на\xa0персональные страницы из\xa0баз данных университета, поэтому важно, чтобы подразделения, отвечающие за\xa0внесение информации в\xa0базы, вовремя получали необходимые данные. Сведения, поступающие из\xa0баз данных университета, сотрудник не\xa0может исправить самостоятельно.'], ['Пример: Если сотрудник не\xa0предоставил в\xa0Управление персонала сведения о\xa0награде или ученой степени, то\xa0эти сведения не\xa0появятся на\xa0его персональной странице. '], ['Сведения, поступающие из\xa0систем ЗиК (Москва), ИС-ПРО (кампусы), АСАВ, РУЗ, LMS, базы данных портала могут изменить только сотрудники подразделений, отвечающие за\xa0информацию из\xa0этих систем:'], ['\n\n\nФамилия Имя Отчество (ЗиК\xa0/ ИС-ПРО)\nПол (ЗиК\xa0/ ИС-ПРО)\nПодразделение (ЗиК\xa0/ ИС-ПРО)\nДолжность / Возложение обязанностей (ЗиК\xa0/ ИС-ПРО)\nНачало работы в\xa0НИУ ВШЭ (ЗиК\xa0/ ИС-ПРО)\nНаучно-педагогический стаж (ЗиК\xa0/ ИС-ПРО)\nОбразование (ЗиК\xa0/ ИС-ПРО)\nУченая степень (ЗиК\xa0/ ИС-ПРО)\n\n\n\n\nУченое звание (ЗиК\xa0/ ИС-ПРО)\nДостижения и\xa0поощрения (ЗиК\xa0/ ИС-ПРО)\nАкадемические надбавки (база данных портала)\nУчебные курсы (АСАВ)\nРуководство аспирантами (АСАВ)\nРуководство ВКР (LMS)\nРасписание (РУЗ)\n\n\n\n\nУчастие в\xa0административном кадровом резерве (база данных портала)\nУчастие в\xa0академическом кадровом резерве (база данных портала)\nПатенты и\xa0свидетельства о\xa0правах интеллектуальной собственности (база данных портала)\nПубликации издательского дома ВШЭ (база данных портала)\n\n\n'], ['Сведения может править только Управление персонала. Изменения будут видны на\xa0портале в\xa0течение суток после их\xa0внесения в\xa0ИС-ПРО', '**Сведения из\xa0ИС-ПРО:**\n\nФамилия Имя ОтчествоПол Подразделение и\xa0должность Начало работы в\xa0НИУ ВШЭ Научно-педагогический стаж\nОбразование Ученая степень Ученое званиеДостижения и\xa0поощрения*\n\n', '**Сотрудники, отвечающие за\xa0внесения правок в\xa0Москве:**\n\n\nЩегольская Татьяна\xa0(+\xa0Наталья Малыхина) (штатные сотрудники с\xa0российским гражданством).\xa0Запросить консультацию\n\nЯлугина Анастасия\xa0(+\xa0Наталия Нижаловская) (сотрудники, работающие\xa0по\xa0договорам ГПХ ППС)\xa0Запросить консультацию\nСтарокадомская Вероника\xa0(сотрудники с\xa0иностранным гражданством)\xa0Запросить консультацию\nНаталья Малыхина\xa0(информация о\xa0наградах вне зависимости от\xa0гражданства)\xa0Запросить консультацию\n\nВ кампусах правки вносят кадровые службы кампусов.\n', '**Что сотрудник может дополнить самостоятельно:**\n\nОбразование: можно уточнить\xa01) уровень образования (например, указать BSc или\xa0BA для бакалавриата, полученного зарубежом), 2) факультет, 3) специальность на\xa0английском языке (по\xa0умолчанию перевода специальности на\xa0английский язык нет).\nУченая степень: можно уточнить тему диссертации и\xa0место защиты.\n\n'], ['Изменения будут видны на\xa0портале после синхронизации баз данных. Синхронизация происходит приблизительно раз в\xa0месяц либо по\xa0запросу от\xa0подразделения, отвечающего за\xa0информацию.', '**Учебные курсы**\nСведения формируются на\xa0основе информации из\xa0Рабочих учебных планов и\xa0модуля нагрузки преподавателей. Правки вносят ответственные от\xa0подразделений.Курирует систему заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна\nСинхронизация с\xa0порталом:\n\nучебных курсов\xa0— по\xa0запросу, приблизительно раз месяц\nпрограммы дисциплин\xa0— каждый час\nнагрузка преподавателей\xa0— ежедневно\n\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nответственный за\xa0планирование нагрузки преподавателей\nответственный за\xa0прикрепление программы дисциплин в\xa0АСАВ\n\n', '**Научное руководство аспирантами**\nСведения может править Управление аспирантуры и\xa0докторантуры\nСинхронизация с\xa0порталом\xa0— по\xa0запросу или раз в\xa0два месяца.\n'], ['Сведения вносят сотрудники учебных офисов, курирует РУЗ заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна', 'К\xa0кому обращаться для внесения правок:', '\nответственный от\xa0подразделения\nсотрудники учебных офисов\n'], ['Сведения вносят сотрудники учебных офисов, курирует LMS заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна)', '**ВКР (выпускная квалификационная работа)**\nСинхронизация\xa0— ежедневно.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nсотрудники учебных офисов\n\n'], ['Изменения видны сразу после внесения.', '**Участие в\xa0административном кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0руководителя программы Юлии Гринкевич.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Юлия Гринкевич\n\n', '**Участие в\xa0академическом кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Управления академического развития\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Управление академического развития\n\n', '**Патенты и\xa0свидетельства о\xa0правах интеллектуальной собственности**\nСведения вносит Дирекция по\xa0правовым вопросам\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nДирекция по\xa0правовым вопросам\n\n', '**Академические надбавки**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Научного фонда (Ольга Чурикова)\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nначальник управления академических исследований Ольга Чурикова\n\n', '**Публикации**\nАвтоматически на\xa0портале появляются только публикации Издательского дома ВШЭ. Остальные публикации вносит представитель подразделения либо сотрудник самостоятельно. Вносить изменения в\xa0публикацию могут: авторы публикации, сотрудник, создавший публикацию, Управление развития и\xa0поддержки портала по\xa0заявке на\xa0адрес publications@hse.ru. Подробнее см. Справочник по\xa0публикациям.\n']]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[['Доступ к\xa0редактированию страниц'], ['Как это работает'], ['Добавление новых вкладок'], ['Работа с\xa0вкладками'], ['Форматирование'], ['Научные интересы'], ['Фотография'], ['Scopus, SPIN РИНЦ, ORCID...'], ['Английская версия персональной страницы'], ['Персональные страницы может редактировать:', '\nСам сотрудник.\nПредставитель персоны (директора, декана, проректора).\nОтветственный за\xa0персональные страницы (редактирование только персональных страниц сотрудников определенного подразделения).\n', 'Для получения прав редактирования необходимо отправить запрос с\xa0вашей корпоративной почты на\xa0адрес portal@hse.ru. Обязательно укажите, какие права необходимо предоставить:', '\nпредставитель персоны (указываете, чью страницу будете редактировать);\nответственный за\xa0персональные страницы (указываете подразделение, страницы сотрудников которого будете редактировать).\n'], ['Непосредственно в\xa0личном кабинете есть инструкция по\xa0редактированию страниц: большая синяя кнопка «Как это работает» (в\xa0английской версии\xa0— How it\xa0works).', ''], ['Если вы\xa0собираетесь добавить информацию, которая не\xa0подходит для предложенных вкладок, вы\xa0можете создать собственную вкладку. Для этого нажмите «Добавить вкладку», введите заголовок и\xa0нажмите «ОК».', '', 'После этого в\xa0созданной вкладке можно добавить необходимую информацию. Нажимаете «Добавить текст» и\xa0заполняете необходимые поля.'], ['Те\xa0разделы, рядом с\xa0которыми стоит «замок», формируются автоматически из\xa0различных баз Вышки. Вы\xa0не\xa0можете вносить в\xa0них изменения, удалять их\xa0или перемещать. Разделы, не\xa0отмеченные этим символом, можно легко перетаскивать мышкой, меняя их\xa0порядок. Добавить новый раздел можно, нажав на\xa0«Добавить текст». Созданный раздел также можно перетащить в\xa0любую вкладку.', 'Если вы\xa0удалили раздел, который по\xa0умолчанию предусмотрен в\xa0одной из\xa0вкладок, и\xa0информация, представленная в\xa0нем, формируется автоматически, то\xa0вы\xa0легко можете восстановить раздел, нажав символ «+» внизу вкладки. При этом будет показан список разделов, подлежащих восстановлению.', '', 'Если вы\xa0удалили раздел, который вы\xa0создали вручную, восстановить его автоматически будет невозможно. Вам придётся заново вносить всю информацию.', 'Помните! Все изменения сохраняются только после того, как вы\xa0нажали кнопку «Сохранить». Если вы\xa0случайно что-то удалили, добавили что-то не\xa0то, просто закройте страницу без сохранения изменений.', '', '\xa0'], ['Чтобы текст во\xa0всех вкладках был одинаковым, необходимо добавлять информацию по\xa0одному из\xa0следующих алгоритмов:', '1) заполнять все вкладки и\xa0поля непосредственно в\xa0личном кабинете, не\xa0копируя информацию из\xa0текстовых редакторов, браузера и\xa0т.п.;', '2) весь текст, который вы\xa0собираетесь добавить в\xa0текстовое поле, необходимо добавить сначала в\xa0блокнот, скопировать из\xa0блокнота и\xa0вставить непосредственно в\xa0текстовое поле личного кабинета;', '3) при вставке текста использовать кнопку «Вставка из\xa0Word». В\xa0случае, если текст всё равно выглядит не\xa0так, как текст на\xa0автоматических вкладках, использовать кнопку «Убрать форматирование»;', '4) при вставке текста использовать кнопку «Вставить только текст» (в\xa0этом случае всё форматирование пропадёт);', '5) после вставки текста в\xa0текстовое поле выделить весь текст и\xa0нажать кнопку «Убрать форматирование».', '', '\xa0'], ['При добавлении интересов нажимаем «Добавить рус.», после этого пишем ключевое слово и\xa0нажимаем «Найти». Отобразится список с\xa0упоминанием искомого слова. Выбираем нужное слово или словосочетание и\xa0нажимаем кнопку «Выбрать».', '\xa0'], ['Фотография загружается из\xa0базы службы безопасности. Система такова: раз в\xa0неделю Дирекция по\xa0безопасности присылает фото в\xa0Управление персонала, которое заносит их\xa0в\xa0ИС-ПРО. Однако сотрудник может залить и\xa0отредактировать фото самостоятельно в\xa0SmartPoint (ЕЛК)'], ['Инструкции:', '\nSPIN РИНЦ\nORCID\nResearcherID\nGoogle Scholar\n', 'По\xa0всем вопросам, связанным с\xa0данной базой, необходимо обращаться к\xa0ответственному от\xa0подразделения.'], ['Для активации английской версии необходимо в\xa0личном кабинете:', '\nЗаполнить поле ФИО на\xa0английском\nЗаполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В\xa0частности, необходимо заполнить поля Специальность в\xa0разделах Образование и\xa0Ученая степень\nСохранить все изменения\nВыбрать пункт «Статус английской версии» (британский флажок)\n', 'Подробнее см.: Работа с\xa0английскими версиями персональных страниц']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -651,19 +639,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -684,66 +712,94 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -757,37 +813,69 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+          <t>[['В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд\xa0типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[['На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть).\xa0']]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[['Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует\xa0выбрать нужную доску из списка.']]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[['Что не следует делать:']]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[['\nСоздавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».\nИспользовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание\nПренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.\n']]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[['Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.']]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+